--- a/generatedUrls.xlsx
+++ b/generatedUrls.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Macintosh HD - Data/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502929F9-0348-B64D-9F95-F001F27F8F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC35EC9-366F-2141-88C4-FE2544E86060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URLs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8493" uniqueCount="8145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8677" uniqueCount="8145">
   <si>
     <t>Production URL</t>
   </si>
@@ -24854,8 +24854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4072"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A534" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B550" sqref="B550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28711,1055 +28711,1448 @@
         <v>8144</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>700</v>
       </c>
       <c r="B351" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C351" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>702</v>
       </c>
       <c r="B352" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C352" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>704</v>
       </c>
       <c r="B353" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C353" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>706</v>
       </c>
       <c r="B354" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C354" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>708</v>
       </c>
       <c r="B355" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C355" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>710</v>
       </c>
       <c r="B356" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C356" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>712</v>
       </c>
       <c r="B357" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C357" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>714</v>
       </c>
       <c r="B358" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C358" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>716</v>
       </c>
       <c r="B359" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C359" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>718</v>
       </c>
       <c r="B360" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C360" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>720</v>
       </c>
       <c r="B361" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C361" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>722</v>
       </c>
       <c r="B362" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C362" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>724</v>
       </c>
       <c r="B363" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C363" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>726</v>
       </c>
       <c r="B364" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C364" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>728</v>
       </c>
       <c r="B365" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C365" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>730</v>
       </c>
       <c r="B366" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C366" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>732</v>
       </c>
       <c r="B367" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C367" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>734</v>
       </c>
       <c r="B368" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C368" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>736</v>
       </c>
       <c r="B369" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C369" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>738</v>
       </c>
       <c r="B370" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C370" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>740</v>
       </c>
       <c r="B371" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C371" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>742</v>
       </c>
       <c r="B372" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C372" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>744</v>
       </c>
       <c r="B373" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C373" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>746</v>
       </c>
       <c r="B374" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C374" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>748</v>
       </c>
       <c r="B375" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C375" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>750</v>
       </c>
       <c r="B376" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C376" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>752</v>
       </c>
       <c r="B377" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C377" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>754</v>
       </c>
       <c r="B378" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C378" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>756</v>
       </c>
       <c r="B379" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C379" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>758</v>
       </c>
       <c r="B380" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C380" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>760</v>
       </c>
       <c r="B381" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C381" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>762</v>
       </c>
       <c r="B382" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C382" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>764</v>
       </c>
       <c r="B383" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C383" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>766</v>
       </c>
       <c r="B384" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C384" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>768</v>
       </c>
       <c r="B385" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C385" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>770</v>
       </c>
       <c r="B386" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C386" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>772</v>
       </c>
       <c r="B387" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C387" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>774</v>
       </c>
       <c r="B388" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C388" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>776</v>
       </c>
       <c r="B389" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C389" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>778</v>
       </c>
       <c r="B390" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C390" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>780</v>
       </c>
       <c r="B391" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C391" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>782</v>
       </c>
       <c r="B392" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C392" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>784</v>
       </c>
       <c r="B393" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C393" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>786</v>
       </c>
       <c r="B394" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C394" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>788</v>
       </c>
       <c r="B395" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C395" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>790</v>
       </c>
       <c r="B396" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C396" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>792</v>
       </c>
       <c r="B397" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C397" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>794</v>
       </c>
       <c r="B398" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C398" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>796</v>
       </c>
       <c r="B399" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C399" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>798</v>
       </c>
       <c r="B400" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C400" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>800</v>
       </c>
       <c r="B401" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C401" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>802</v>
       </c>
       <c r="B402" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C402" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>804</v>
       </c>
       <c r="B403" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C403" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>806</v>
       </c>
       <c r="B404" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C404" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>808</v>
       </c>
       <c r="B405" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C405" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>810</v>
       </c>
       <c r="B406" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C406" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>812</v>
       </c>
       <c r="B407" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C407" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>814</v>
       </c>
       <c r="B408" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C408" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>816</v>
       </c>
       <c r="B409" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C409" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>818</v>
       </c>
       <c r="B410" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C410" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>820</v>
       </c>
       <c r="B411" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C411" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>822</v>
       </c>
       <c r="B412" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C412" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>824</v>
       </c>
       <c r="B413" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C413" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>826</v>
       </c>
       <c r="B414" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C414" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>828</v>
       </c>
       <c r="B415" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C415" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>830</v>
       </c>
       <c r="B416" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C416" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>832</v>
       </c>
       <c r="B417" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C417" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>834</v>
       </c>
       <c r="B418" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C418" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>836</v>
       </c>
       <c r="B419" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C419" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>838</v>
       </c>
       <c r="B420" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C420" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>840</v>
       </c>
       <c r="B421" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C421" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>842</v>
       </c>
       <c r="B422" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C422" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>844</v>
       </c>
       <c r="B423" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C423" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>846</v>
       </c>
       <c r="B424" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C424" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>848</v>
       </c>
       <c r="B425" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C425" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>850</v>
       </c>
       <c r="B426" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C426" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>852</v>
       </c>
       <c r="B427" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C427" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>854</v>
       </c>
       <c r="B428" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C428" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>856</v>
       </c>
       <c r="B429" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C429" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>858</v>
       </c>
       <c r="B430" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C430" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>860</v>
       </c>
       <c r="B431" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C431" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>862</v>
       </c>
       <c r="B432" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C432" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>864</v>
       </c>
       <c r="B433" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C433" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>866</v>
       </c>
       <c r="B434" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C434" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>868</v>
       </c>
       <c r="B435" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C435" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>870</v>
       </c>
       <c r="B436" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C436" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>872</v>
       </c>
       <c r="B437" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C437" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>874</v>
       </c>
       <c r="B438" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C438" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>876</v>
       </c>
       <c r="B439" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C439" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>878</v>
       </c>
       <c r="B440" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C440" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>880</v>
       </c>
       <c r="B441" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C441" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>882</v>
       </c>
       <c r="B442" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C442" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>884</v>
       </c>
       <c r="B443" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C443" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>886</v>
       </c>
       <c r="B444" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C444" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>888</v>
       </c>
       <c r="B445" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C445" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>890</v>
       </c>
       <c r="B446" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C446" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>892</v>
       </c>
       <c r="B447" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C447" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>894</v>
       </c>
       <c r="B448" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C448" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>896</v>
       </c>
       <c r="B449" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C449" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>898</v>
       </c>
       <c r="B450" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C450" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>900</v>
       </c>
       <c r="B451" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C451" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>902</v>
       </c>
       <c r="B452" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C452" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>904</v>
       </c>
       <c r="B453" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C453" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>906</v>
       </c>
       <c r="B454" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C454" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>908</v>
       </c>
       <c r="B455" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C455" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>910</v>
       </c>
       <c r="B456" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C456" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>912</v>
       </c>
       <c r="B457" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C457" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>914</v>
       </c>
       <c r="B458" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C458" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>916</v>
       </c>
       <c r="B459" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C459" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>918</v>
       </c>
       <c r="B460" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C460" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>920</v>
       </c>
       <c r="B461" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C461" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>922</v>
       </c>
       <c r="B462" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C462" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>924</v>
       </c>
       <c r="B463" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C463" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>926</v>
       </c>
       <c r="B464" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C464" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>928</v>
       </c>
       <c r="B465" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C465" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>930</v>
       </c>
       <c r="B466" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C466" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>932</v>
       </c>
       <c r="B467" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C467" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>934</v>
       </c>
       <c r="B468" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C468" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>936</v>
       </c>
       <c r="B469" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C469" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>938</v>
       </c>
       <c r="B470" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
+      <c r="C470" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
         <v>940</v>
       </c>
       <c r="B471" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C471" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>942</v>
       </c>
       <c r="B472" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C472" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>944</v>
       </c>
       <c r="B473" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C473" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>946</v>
       </c>
       <c r="B474" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C474" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>948</v>
       </c>
       <c r="B475" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C475" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>950</v>
       </c>
       <c r="B476" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C476" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>952</v>
       </c>
       <c r="B477" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C477" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>954</v>
       </c>
       <c r="B478" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C478" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>956</v>
       </c>
       <c r="B479" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C479" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>958</v>
       </c>
       <c r="B480" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C480" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>960</v>
       </c>
       <c r="B481" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C481" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>962</v>
       </c>
@@ -29767,431 +30160,590 @@
         <v>963</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>964</v>
       </c>
       <c r="B483" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C483" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>966</v>
       </c>
       <c r="B484" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C484" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>968</v>
       </c>
       <c r="B485" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C485" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>970</v>
       </c>
       <c r="B486" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C486" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>972</v>
       </c>
       <c r="B487" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C487" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>974</v>
       </c>
       <c r="B488" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C488" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>976</v>
       </c>
       <c r="B489" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C489" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>978</v>
       </c>
       <c r="B490" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C490" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>980</v>
       </c>
       <c r="B491" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C491" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>982</v>
       </c>
       <c r="B492" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C492" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>984</v>
       </c>
       <c r="B493" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C493" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>986</v>
       </c>
       <c r="B494" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C494" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>988</v>
       </c>
       <c r="B495" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C495" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>990</v>
       </c>
       <c r="B496" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C496" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>992</v>
       </c>
       <c r="B497" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C497" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>994</v>
       </c>
       <c r="B498" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C498" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>996</v>
       </c>
       <c r="B499" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C499" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>998</v>
       </c>
       <c r="B500" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C500" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>1000</v>
       </c>
       <c r="B501" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C501" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>1002</v>
       </c>
       <c r="B502" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C502" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>1004</v>
       </c>
       <c r="B503" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C503" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>1006</v>
       </c>
       <c r="B504" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C504" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>1008</v>
       </c>
       <c r="B505" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C505" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>1010</v>
       </c>
       <c r="B506" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C506" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>1012</v>
       </c>
       <c r="B507" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C507" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>1014</v>
       </c>
       <c r="B508" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C508" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>1016</v>
       </c>
       <c r="B509" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C509" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>1018</v>
       </c>
       <c r="B510" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C510" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>1020</v>
       </c>
       <c r="B511" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C511" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>1022</v>
       </c>
       <c r="B512" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C512" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>1024</v>
       </c>
       <c r="B513" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C513" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>1026</v>
       </c>
       <c r="B514" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C514" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>1028</v>
       </c>
       <c r="B515" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C515" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>1030</v>
       </c>
       <c r="B516" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C516" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>1032</v>
       </c>
       <c r="B517" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C517" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>1034</v>
       </c>
       <c r="B518" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C518" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>1036</v>
       </c>
       <c r="B519" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C519" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>1038</v>
       </c>
       <c r="B520" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C520" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>1040</v>
       </c>
       <c r="B521" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C521" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>1042</v>
       </c>
       <c r="B522" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C522" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>1044</v>
       </c>
       <c r="B523" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C523" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>1046</v>
       </c>
       <c r="B524" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C524" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>1048</v>
       </c>
       <c r="B525" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C525" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>1050</v>
       </c>
       <c r="B526" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C526" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>1052</v>
       </c>
       <c r="B527" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C527" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>1054</v>
       </c>
       <c r="B528" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C528" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>1056</v>
       </c>
       <c r="B529" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C529" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>1058</v>
       </c>
       <c r="B530" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C530" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>1060</v>
       </c>
       <c r="B531" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C531" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>1062</v>
       </c>
       <c r="B532" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C532" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>1064</v>
       </c>
       <c r="B533" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C533" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>1066</v>
       </c>
       <c r="B534" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C534" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>1068</v>
       </c>
       <c r="B535" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C535" s="2" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>1070</v>
       </c>
@@ -30199,7 +30751,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>1072</v>
       </c>
@@ -30207,7 +30759,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>1074</v>
       </c>
@@ -30215,7 +30767,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>1076</v>
       </c>
@@ -30223,7 +30775,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>1078</v>
       </c>
@@ -30231,7 +30783,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>1080</v>
       </c>
@@ -30239,7 +30791,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>1082</v>
       </c>
@@ -30247,7 +30799,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>1084</v>
       </c>
@@ -30255,7 +30807,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>1086</v>
       </c>
@@ -58493,10 +59045,11 @@
     <hyperlink ref="A12" r:id="rId2" xr:uid="{8C6E83A9-62F4-5F44-890C-CF0151412C36}"/>
     <hyperlink ref="B111" r:id="rId3" xr:uid="{01812DAC-884B-0443-8479-685E743E798A}"/>
     <hyperlink ref="B327" r:id="rId4" xr:uid="{87F8D533-8153-A34F-B0D1-0F283268E57D}"/>
+    <hyperlink ref="A471" r:id="rId5" xr:uid="{4762D88B-D325-914F-A51B-F2EAA70E8FF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B1 A11 A110 A326 A111 A4072 A327 A3 A4 A5 A6 A7 A8 A9 A10 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57 A58 A59 A60 A61 A62 A63 A64 A65 A66 A67 A68 A69 A70 A71 A72 A73 A74 A75 A76 A77 A78 A79 A80 A81 A82 A83 A84 A85 A86 A87 A88 A89 A90 A91 A92 A93 A94 A95 A96 A97 A98 A99 A100 A101 A102 A103 A104 A105 A106 A107 A108 A109 A112 A113 A114 A115 A116 A117 A118 A119 A120 A121 A122 A123 A124 A125 A126 A127 A128 A129 A130 A131 A132 A133 A134 A135 A136 A137 A138 A139 A140 A141 A142 A143 A144 A145 A146 A147 A148 A149 A150 A151 A152 A153 A154 A155 A156 A157 A158 A159 A160 A161 A162 A163 A164 A165 A166 A167 A168 A169 A170 A171 A172 A173 A174 A175 A176 A177 A178 A179 A180 A181 A182 A183 A184 A185 A186 A187 A188 A189 A190 A191 A192 A193 A194 A195 A196 A197 A198 A199 A200 A201 A202 A203 A204 A205 A206 A207 A208 A209 A210 A211 A212 A213 A214 A215 A216 A217 A218 A219 A220 A221 A222 A223 A224 A225 A226 A227 A228 A229 A230 A231 A232 A233 A234 A235 A236 A237 A238 A239 A240 A241 A242 A243 A244 A245 A246 A247 A248 A249 A250 A251 A252 A253 A254 A255 A256 A257 A258 A259 A260 A261 A262 A263 A264 A265 A266 A267 A268 A269 A270 A271 A272 A273 A274 A275 A276 A277 A278 A279 A280 A281 A282 A283 A284 A285 A286 A287 A288 A289 A290 A291 A292 A293 A294 A295 A296 A297 A298 A299 A300 A301 A302 A303 A304 A305 A306 A307 A308 A309 A310 A311 A312 A313 A314 A315 A316 A317 A318 A319 A320 A321 A322 A323 A324 A325 A328 A329 A330 A331 A332 A333 A334 A335 A336 A337 A338 A339 A340 A341 A342 A343 A344 A345 A346 A347 A348 A349 A350 A351 A352 A353 A354 A355 A356 A357 A358 A359 A360 A361 A362 A363 A364 A365 A366 A367 A368 A369 A370 A371 A372 A373 A374 A375 A376 A377 A378 A379 A380 A381 A382 A383 A384 A385 A386 A387 A388 A389 A390 A391 A392 A393 A394 A395 A396 A397 A398 A399 A400 A401 A402 A403 A404 A405 A406 A407 A408 A409 A410 A411 A412 A413 A414 A415 A416 A417 A418 A419 A420 A421 A422 A423 A424 A425 A426 A427 A428 A429 A430 A431 A432 A433 A434 A435 A436 A437 A438 A439 A440 A441 A442 A443 A444 A445 A446 A447 A448 A449 A450 A451 A452 A453 A454 A455 A456 A457 A458 A459 A460 A461 A462 A463 A464 A465 A466 A467 A468 A469 A470 A471 A472 A473 A474 A475 A476 A477 A478 A479 A480 A481 A482 A483 A484 A485 A486 A487 A488 A489 A490 A491 A492 A493 A494 A495 A496 A497 A498 A499 A500 A501 A502 A503 A504 A505 A506 A507 A508 A509 A510 A511 A512 A513 A514 A515 A516 A517 A518 A519 A520 A521 A522 A523 A524 A525 A526 A527 A528 A529 A530 A531 A532 A533 A534 A535 A536 A537 A538 A539 A540 A541 A542 A543 A544 A545 A546 A547 A548 A549 A550 A551 A552 A553 A554 A555 A556 A557 A558 A559 A560 A561 A562 A563 A564 A565 A566 A567 A568 A569 A570 A571 A572 A573 A574 A575 A576 A577 A578 A579 A580 A581 A582 A583 A584 A585 A586 A587 A588 A589 A590 A591 A592 A593 A594 A595 A596 A597 A598 A599 A600 A601 A602 A603 A604 A605 A606 A607 A608 A609 A610 A611 A612 A613 A614 A615 A616 A617 A618 A619 A620 A621 A622 A623 A624 A625 A626 A627 A628 A629 A630 A631 A632 A633 A634 A635 A636 A637 A638 A639 A640 A641 A642 A643 A644 A645 A646 A647 A648 A649 A650 A651 A652 A653 A654 A655 A656 A657 A658 A659 A660 A661 A662 A663 A664 A665 A666 A667 A668 A669 A670 A671 A672 A673 A674 A675 A676 A677 A678 A679 A680 A681 A682 A683 A684 A685 A686 A687 A688 A689 A690 A691 A692 A693 A694 A695 A696 A697 A698 A699 A700 A701 A702 A703 A704 A705 A706 A707 A708 A709 A710 A711 A712 A713 A714 A715 A716 A717 A718 A719 A720 A721 A722 A723 A724 A725 A726 A727 A728 A729 A730 A731 A732 A733 A734 A735 A736 A737 A738 A739 A740 A741 A742 A743 A744 A745 A746 A747 A748 A749 A750 A751 A752 A753 A754 A755 A756 A757 A758 A759 A760 A761 A762 A763 A764 A765 A766 A767 A768 A769 A770 A771 A772 A773 A774 A775 A776 A777 A778 A779 A780 A781 A782 A783 A784 A785 A786 A787 A788 A789 A790 A791 A792 A793 A794 A795 A796 A797 A798 A799 A800 A801 A802 A803 A804 A805 A806 A807 A808 A809 A810 A811 A812 A813 A814 A815 A816 A817 A818 A819 A820 A821 A822 A823 A824 A825 A826 A827 A828 A829 A830 A831 A832 A833 A834 A835 A836 A837 A838 A839 A840 A841 A842 A843 A844 A845 A846 A847 A848 A849 A850 A851 A852 A853 A854 A855 A856 A857 A858 A859 A860 A861 A862 A863 A864 A865 A866 A867 A868 A869 A870 A871 A872 A873 A874 A875 A876 A877 A878 A879 A880 A881 A882 A883 A884 A885 A886 A887 A888 A889 A890 A891 A892 A893 A894 A895 A896 A897 A898 A899 A900 A901 A902 A903 A904 A905 A906 A907 A908 A909 A910 A911 A912 A913 A914 A915 A916 A917 A918 A919 A920 A921 A922 A923 A924 A925 A926 A927 A928 A929 A930 A931 A932 A933 A934 A935 A936 A937 A938 A939 A940 A941 A942 A943 A944 A945 A946 A947 A948 A949 A950 A951 A952 A953 A954 A955 A956 A957 A958 A959 A960 A961 A962 A963 A964 A965 A966 A967 A968 A969 A970 A971 A972 A973 A974 A975 A976 A977 A978 A979 A980 A981 A982 A983 A984 A985 A986 A987 A988 A989 A990 A991 A992 A993 A994 A995 A996 A997 A998 A999 A1000 A1001 A1002 A1003 A1004 A1005 A1006 A1007 A1008 A1009 A1010 A1011 A1012 A1013 A1014 A1015 A1016 A1017 A1018 A1019 A1020 A1021 A1022 A1023 A1024 A1025 A1026 A1027 A1028 A1029 A1030 A1031 A1032 A1033 A1034 A1035 A1036 A1037 A1038 A1039 A1040 A1041 A1042 A1043 A1044 A1045 A1046 A1047 A1048 A1049 A1050 A1051 A1052 A1053 A1054 A1055 A1056 A1057 A1058 A1059 A1060 A1061 A1062 A1063 A1064 A1065 A1066 A1067 A1068 A1069 A1070 A1071 A1072 A1073 A1074 A1075 A1076 A1077 A1078 A1079 A1080 A1081 A1082 A1083 A1084 A1085 A1086 A1087 A1088 A1089 A1090 A1091 A1092 A1093 A1094 A1095 A1096 A1097 A1098 A1099 A1100 A1101 A1102 A1103 A1104 A1105 A1106 A1107 A1108 A1109 A1110 A1111 A1112 A1113 A1114 A1115 A1116 A1117 A1118 A1119 A1120 A1121 A1122 A1123 A1124 A1125 A1126 A1127 A1128 A1129 A1130 A1131 A1132 A1133 A1134 A1135 A1136 A1137 A1138 A1139 A1140 A1141 A1142 A1143 A1144 A1145 A1146 A1147 A1148 A1149 A1150 A1151 A1152 A1153 A1154 A1155 A1156 A1157 A1158 A1159 A1160 A1161 A1162 A1163 A1164 A1165 A1166 A1167 A1168 A1169 A1170 A1171 A1172 A1173 A1174 A1175 A1176 A1177 A1178 A1179 A1180 A1181 A1182 A1183 A1184 A1185 A1186 A1187 A1188 A1189 A1190 A1191 A1192 A1193 A1194 A1195 A1196 A1197 A1198 A1199 A1200 A1201 A1202 A1203 A1204 A1205 A1206 A1207 A1208 A1209 A1210 A1211 A1212 A1213 A1214 A1215 A1216 A1217 A1218 A1219 A1220 A1221 A1222 A1223 A1224 A1225 A1226 A1227 A1228 A1229 A1230 A1231 A1232 A1233 A1234 A1235 A1236 A1237 A1238 A1239 A1240 A1241 A1242 A1243 A1244 A1245 A1246 A1247 A1248 A1249 A1250 A1251 A1252 A1253 A1254 A1255 A1256 A1257 A1258 A1259 A1260 A1261 A1262 A1263 A1264 A1265 A1266 A1267 A1268 A1269 A1270 A1271 A1272 A1273 A1274 A1275 A1276 A1277 A1278 A1279 A1280 A1281 A1282 A1283 A1284 A1285 A1286 A1287 A1288 A1289 A1290 A1291 A1292 A1293 A1294 A1295 A1296 A1297 A1298 A1299 A1300 A1301 A1302 A1303 A1304 A1305 A1306 A1307 A1308 A1309 A1310 A1311 A1312 A1313 A1314 A1315 A1316 A1317 A1318 A1319 A1320 A1321 A1322 A1323 A1324 A1325 A1326 A1327 A1328 A1329 A1330 A1331 A1332 A1333 A1334 A1335 A1336 A1337 A1338 A1339 A1340 A1341 A1342 A1343 A1344 A1345 A1346 A1347 A1348 A1349 A1350 A1351 A1352 A1353 A1354 A1355 A1356 A1357 A1358 A1359 A1360 A1361 A1362 A1363 A1364 A1365 A1366 A1367 A1368 A1369 A1370 A1371 A1372 A1373 A1374 A1375 A1376 A1377 A1378 A1379 A1380 A1381 A1382 A1383 A1384 A1385 A1386 A1387 A1388 A1389 A1390 A1391 A1392 A1393 A1394 A1395 A1396 A1397 A1398 A1399 A1400 A1401 A1402 A1403 A1404 A1405 A1406 A1407 A1408 A1409 A1410 A1411 A1412 A1413 A1414 A1415 A1416 A1417 A1418 A1419 A1420 A1421 A1422 A1423 A1424 A1425 A1426 A1427 A1428 A1429 A1430 A1431 A1432 A1433 A1434 A1435 A1436 A1437 A1438 A1439 A1440 A1441 A1442 A1443 A1444 A1445 A1446 A1447 A1448 A1449 A1450 A1451 A1452 A1453 A1454 A1455 A1456 A1457 A1458 A1459 A1460 A1461 A1462 A1463 A1464 A1465 A1466 A1467 A1468 A1469 A1470 A1471 A1472 A1473 A1474 A1475 A1476 A1477 A1478 A1479 A1480 A1481 A1482 A1483 A1484 A1485 A1486 A1487 A1488 A1489 A1490 A1491 A1492 A1493 A1494 A1495 A1496 A1497 A1498 A1499 A1500 A1501 A1502 A1503 A1504 A1505 A1506 A1507 A1508 A1509 A1510 A1511 A1512 A1513 A1514 A1515 A1516 A1517 A1518 A1519 A1520 A1521 A1522 A1523 A1524 A1525 A1526 A1527 A1528 A1529 A1530 A1531 A1532 A1533 A1534 A1535 A1536 A1537 A1538 A1539 A1540 A1541 A1542 A1543 A1544 A1545 A1546 A1547 A1548 A1549 A1550 A1551 A1552 A1553 A1554 A1555 A1556 A1557 A1558 A1559 A1560 A1561 A1562 A1563 A1564 A1565 A1566 A1567 A1568 A1569 A1570 A1571 A1572 A1573 A1574 A1575 A1576 A1577 A1578 A1579 A1580 A1581 A1582 A1583 A1584 A1585 A1586 A1587 A1588 A1589 A1590 A1591 A1592 A1593 A1594 A1595 A1596 A1597 A1598 A1599 A1600 A1601 A1602 A1603 A1604 A1605 A1606 A1607 A1608 A1609 A1610 A1611 A1612 A1613 A1614 A1615 A1616 A1617 A1618 A1619 A1620 A1621 A1622 A1623 A1624 A1625 A1626 A1627 A1628 A1629 A1630 A1631 A1632 A1633 A1634 A1635 A1636 A1637 A1638 A1639 A1640 A1641 A1642 A1643 A1644 A1645 A1646 A1647 A1648 A1649 A1650 A1651 A1652 A1653 A1654 A1655 A1656 A1657 A1658 A1659 A1660 A1661 A1662 A1663 A1664 A1665 A1666 A1667 A1668 A1669 A1670 A1671 A1672 A1673 A1674 A1675 A1676 A1677 A1678 A1679 A1680 A1681 A1682 A1683 A1684 A1685 A1686 A1687 A1688 A1689 A1690 A1691 A1692 A1693 A1694 A1695 A1696 A1697 A1698 A1699 A1700 A1701 A1702 A1703 A1704 A1705 A1706 A1707 A1708 A1709 A1710 A1711 A1712 A1713 A1714 A1715 A1716 A1717 A1718 A1719 A1720 A1721 A1722 A1723 A1724 A1725 A1726 A1727 A1728 A1729 A1730 A1731 A1732 A1733 A1734 A1735 A1736 A1737 A1738 A1739 A1740 A1741 A1742 A1743 A1744 A1745 A1746 A1747 A1748 A1749 A1750 A1751 A1752 A1753 A1754 A1755 A1756 A1757 A1758 A1759 A1760 A1761 A1762 A1763 A1764 A1765 A1766 A1767 A1768 A1769 A1770 A1771 A1772 A1773 A1774 A1775 A1776 A1777 A1778 A1779 A1780 A1781 A1782 A1783 A1784 A1785 A1786 A1787 A1788 A1789 A1790 A1791 A1792 A1793 A1794 A1795 A1796 A1797 A1798 A1799 A1800 A1801 A1802 A1803 A1804 A1805 A1806 A1807 A1808 A1809 A1810 A1811 A1812 A1813 A1814 A1815 A1816 A1817 A1818 A1819 A1820 A1821 A1822 A1823 A1824 A1825 A1826 A1827 A1828 A1829 A1830 A1831 A1832 A1833 A1834 A1835 A1836 A1837 A1838 A1839 A1840 A1841 A1842 A1843 A1844 A1845 A1846 A1847 A1848 A1849 A1850 A1851 A1852 A1853 A1854 A1855 A1856 A1857 A1858 A1859 A1860 A1861 A1862 A1863 A1864 A1865 A1866 A1867 A1868 A1869 A1870 A1871 A1872 A1873 A1874 A1875 A1876 A1877 A1878 A1879 A1880 A1881 A1882 A1883 A1884 A1885 A1886 A1887 A1888 A1889 A1890 A1891 A1892 A1893 A1894 A1895 A1896 A1897 A1898 A1899 A1900 A1901 A1902 A1903 A1904 A1905 A1906 A1907 A1908 A1909 A1910 A1911 A1912 A1913 A1914 A1915 A1916 A1917 A1918 A1919 A1920 A1921 A1922 A1923 A1924 A1925 A1926 A1927 A1928 A1929 A1930 A1931 A1932 A1933 A1934 A1935 A1936 A1937 A1938 A1939 A1940 A1941 A1942 A1943 A1944 A1945 A1946 A1947 A1948 A1949 A1950 A1951 A1952 A1953 A1954 A1955 A1956 A1957 A1958 A1959 A1960 A1961 A1962 A1963 A1964 A1965 A1966 A1967 A1968 A1969 A1970 A1971 A1972 A1973 A1974 A1975 A1976 A1977 A1978 A1979 A1980 A1981 A1982 A1983 A1984 A1985 A1986 A1987 A1988 A1989 A1990 A1991 A1992 A1993 A1994 A1995 A1996 A1997 A1998 A1999 A2000 A2001 A2002 A2003 A2004 A2005 A2006 A2007 A2008 A2009 A2010 A2011 A2012 A2013 A2014 A2015 A2016 A2017 A2018 A2019 A2020 A2021 A2022 A2023 A2024 A2025 A2026 A2027 A2028 A2029 A2030 A2031 A2032 A2033 A2034 A2035 A2036 A2037 A2038 A2039 A2040 A2041 A2042 A2043 A2044 A2045 A2046 A2047 A2048 A2049 A2050 A2051 A2052 A2053 A2054 A2055 A2056 A2057 A2058 A2059 A2060 A2061 A2062 A2063 A2064 A2065 A2066 A2067 A2068 A2069 A2070 A2071 A2072 A2073 A2074 A2075 A2076 A2077 A2078 A2079 A2080 A2081 A2082 A2083 A2084 A2085 A2086 A2087 A2088 A2089 A2090 A2091 A2092 A2093 A2094 A2095 A2096 A2097 A2098 A2099 A2100 A2101 A2102 A2103 A2104 A2105 A2106 A2107 A2108 A2109 A2110 A2111 A2112 A2113 A2114 A2115 A2116 A2117 A2118 A2119 A2120 A2121 A2122 A2123 A2124 A2125 A2126 A2127 A2128 A2129 A2130 A2131 A2132 A2133 A2134 A2135 A2136 A2137 A2138 A2139 A2140 A2141 A2142 A2143 A2144 A2145 A2146 A2147 A2148 A2149 A2150 A2151 A2152 A2153 A2154 A2155 A2156 A2157 A2158 A2159 A2160 A2161 A2162 A2163 A2164 A2165 A2166 A2167 A2168 A2169 A2170 A2171 A2172 A2173 A2174 A2175 A2176 A2177 A2178 A2179 A2180 A2181 A2182 A2183 A2184 A2185 A2186 A2187 A2188 A2189 A2190 A2191 A2192 A2193 A2194 A2195 A2196 A2197 A2198 A2199 A2200 A2201 A2202 A2203 A2204 A2205 A2206 A2207 A2208 A2209 A2210 A2211 A2212 A2213 A2214 A2215 A2216 A2217 A2218 A2219 A2220 A2221 A2222 A2223 A2224 A2225 A2226 A2227 A2228 A2229 A2230 A2231 A2232 A2233 A2234 A2235 A2236 A2237 A2238 A2239 A2240 A2241 A2242 A2243 A2244 A2245 A2246 A2247 A2248 A2249 A2250 A2251 A2252 A2253 A2254 A2255 A2256 A2257 A2258 A2259 A2260 A2261 A2262 A2263 A2264 A2265 A2266 A2267 A2268 A2269 A2270 A2271 A2272 A2273 A2274 A2275 A2276 A2277 A2278 A2279 A2280 A2281 A2282 A2283 A2284 A2285 A2286 A2287 A2288 A2289 A2290 A2291 A2292 A2293 A2294 A2295 A2296 A2297 A2298 A2299 A2300 A2301 A2302 A2303 A2304 A2305 A2306 A2307 A2308 A2309 A2310 A2311 A2312 A2313 A2314 A2315 A2316 A2317 A2318 A2319 A2320 A2321 A2322 A2323 A2324 A2325 A2326 A2327 A2328 A2329 A2330 A2331 A2332 A2333 A2334 A2335 A2336 A2337 A2338 A2339 A2340 A2341 A2342 A2343 A2344 A2345 A2346 A2347 A2348 A2349 A2350 A2351 A2352 A2353 A2354 A2355 A2356 A2357 A2358 A2359 A2360 A2361 A2362 A2363 A2364 A2365 A2366 A2367 A2368 A2369 A2370 A2371 A2372 A2373 A2374 A2375 A2376 A2377 A2378 A2379 A2380 A2381 A2382 A2383 A2384 A2385 A2386 A2387 A2388 A2389 A2390 A2391 A2392 A2393 A2394 A2395 A2396 A2397 A2398 A2399 A2400 A2401 A2402 A2403 A2404 A2405 A2406 A2407 A2408 A2409 A2410 A2411 A2412 A2413 A2414 A2415 A2416 A2417 A2418 A2419 A2420 A2421 A2422 A2423 A2424 A2425 A2426 A2427 A2428 A2429 A2430 A2431 A2432 A2433 A2434 A2435 A2436 A2437 A2438 A2439 A2440 A2441 A2442 A2443 A2444 A2445 A2446 A2447 A2448 A2449 A2450 A2451 A2452 A2453 A2454 A2455 A2456 A2457 A2458 A2459 A2460 A2461 A2462 A2463 A2464 A2465 A2466 A2467 A2468 A2469 A2470 A2471 A2472 A2473 A2474 A2475 A2476 A2477 A2478 A2479 A2480 A2481 A2482 A2483 A2484 A2485 A2486 A2487 A2488 A2489 A2490 A2491 A2492 A2493 A2494 A2495 A2496 A2497 A2498 A2499 A2500 A2501 A2502 A2503 A2504 A2505 A2506 A2507 A2508 A2509 A2510 A2511 A2512 A2513 A2514 A2515 A2516 A2517 A2518 A2519 A2520 A2521 A2522 A2523 A2524 A2525 A2526 A2527 A2528 A2529 A2530 A2531 A2532 A2533 A2534 A2535 A2536 A2537 A2538 A2539 A2540 A2541 A2542 A2543 A2544 A2545 A2546 A2547 A2548 A2549 A2550 A2551 A2552 A2553 A2554 A2555 A2556 A2557 A2558 A2559 A2560 A2561 A2562 A2563 A2564 A2565 A2566 A2567 A2568 A2569 A2570 A2571 A2572 A2573 A2574 A2575 A2576 A2577 A2578 A2579 A2580 A2581 A2582 A2583 A2584 A2585 A2586 A2587 A2588 A2589 A2590 A2591 A2592 A2593 A2594 A2595 A2596 A2597 A2598 A2599 A2600 A2601 A2602 A2603 A2604 A2605 A2606 A2607 A2608 A2609 A2610 A2611 A2612 A2613 A2614 A2615 A2616 A2617 A2618 A2619 A2620 A2621 A2622 A2623 A2624 A2625 A2626 A2627 A2628 A2629 A2630 A2631 A2632 A2633 A2634 A2635 A2636 A2637 A2638 A2639 A2640 A2641 A2642 A2643 A2644 A2645 A2646 A2647 A2648 A2649 A2650 A2651 A2652 A2653 A2654 A2655 A2656 A2657 A2658 A2659 A2660 A2661 A2662 A2663 A2664 A2665 A2666 A2667 A2668 A2669 A2670 A2671 A2672 A2673 A2674 A2675 A2676 A2677 A2678 A2679 A2680 A2681 A2682 A2683 A2684 A2685 A2686 A2687 A2688 A2689 A2690 A2691 A2692 A2693 A2694 A2695 A2696 A2697 A2698 A2699 A2700 A2701 A2702 A2703 A2704 A2705 A2706 A2707 A2708 A2709 A2710 A2711 A2712 A2713 A2714 A2715 A2716 A2717 A2718 A2719 A2720 A2721 A2722 A2723 A2724 A2725 A2726 A2727 A2728 A2729 A2730 A2731 A2732 A2733 A2734 A2735 A2736 A2737 A2738 A2739 A2740 A2741 A2742 A2743 A2744 A2745 A2746 A2747 A2748 A2749 A2750 A2751 A2752 A2753 A2754 A2755 A2756 A2757 A2758 A2759 A2760 A2761 A2762 A2763 A2764 A2765 A2766 A2767 A2768 A2769 A2770 A2771 A2772 A2773 A2774 A2775 A2776 A2777 A2778 A2779 A2780 A2781 A2782 A2783 A2784 A2785 A2786 A2787 A2788 A2789 A2790 A2791 A2792 A2793 A2794 A2795 A2796 A2797 A2798 A2799 A2800 A2801 A2802 A2803 A2804 A2805 A2806 A2807 A2808 A2809 A2810 A2811 A2812 A2813 A2814 A2815 A2816 A2817 A2818 A2819 A2820 A2821 A2822 A2823 A2824 A2825 A2826 A2827 A2828 A2829 A2830 A2831 A2832 A2833 A2834 A2835 A2836 A2837 A2838 A2839 A2840 A2841 A2842 A2843 A2844 A2845 A2846 A2847 A2848 A2849 A2850 A2851 A2852 A2853 A2854 A2855 A2856 A2857 A2858 A2859 A2860 A2861 A2862 A2863 A2864 A2865 A2866 A2867 A2868 A2869 A2870 A2871 A2872 A2873 A2874 A2875 A2876 A2877 A2878 A2879 A2880 A2881 A2882 A2883 A2884 A2885 A2886 A2887 A2888 A2889 A2890 A2891 A2892 A2893 A2894 A2895 A2896 A2897 A2898 A2899 A2900 A2901 A2902 A2903 A2904 A2905 A2906 A2907 A2908 A2909 A2910 A2911 A2912 A2913 A2914 A2915 A2916 A2917 A2918 A2919 A2920 A2921 A2922 A2923 A2924 A2925 A2926 A2927 A2928 A2929 A2930 A2931 A2932 A2933 A2934 A2935 A2936 A2937 A2938 A2939 A2940 A2941 A2942 A2943 A2944 A2945 A2946 A2947 A2948 A2949 A2950 A2951 A2952 A2953 A2954 A2955 A2956 A2957 A2958 A2959 A2960 A2961 A2962 A2963 A2964 A2965 A2966 A2967 A2968 A2969 A2970 A2971 A2972 A2973 A2974 A2975 A2976 A2977 A2978 A2979 A2980 A2981 A2982 A2983 A2984 A2985 A2986 A2987 A2988 A2989 A2990 A2991 A2992 A2993 A2994 A2995 A2996 A2997 A2998 A2999 A3000 A3001 A3002 A3003 A3004 A3005 A3006 A3007 A3008 A3009 A3010 A3011 A3012 A3013 A3014 A3015 A3016 A3017 A3018 A3019 A3020 A3021 A3022 A3023 A3024 A3025 A3026 A3027 A3028 A3029 A3030 A3031 A3032 A3033 A3034 A3035 A3036 A3037 A3038 A3039 A3040 A3041 A3042 A3043 A3044 A3045 A3046 A3047 A3048 A3049 A3050 A3051 A3052 A3053 A3054 A3055 A3056 A3057 A3058 A3059 A3060 A3061 A3062 A3063 A3064 A3065 A3066 A3067 A3068 A3069 A3070 A3071 A3072 A3073 A3074 A3075 A3076 A3077 A3078 A3079 A3080 A3081 A3082 A3083 A3084 A3085 A3086 A3087 A3088 A3089 A3090 A3091 A3092 A3093 A3094 A3095 A3096 A3097 A3098 A3099 A3100 A3101 A3102 A3103 A3104 A3105 A3106 A3107 A3108 A3109 A3110 A3111 A3112 A3113 A3114 A3115 A3116 A3117 A3118 A3119 A3120 A3121 A3122 A3123 A3124 A3125 A3126 A3127 A3128 A3129 A3130 A3131 A3132 A3133 A3134 A3135 A3136 A3137 A3138 A3139 A3140 A3141 A3142 A3143 A3144 A3145 A3146 A3147 A3148 A3149 A3150 A3151 A3152 A3153 A3154 A3155 A3156 A3157 A3158 A3159 A3160 A3161 A3162 A3163 A3164 A3165 A3166 A3167 A3168 A3169 A3170 A3171 A3172 A3173 A3174 A3175 A3176 A3177 A3178 A3179 A3180 A3181 A3182 A3183 A3184 A3185 A3186 A3187 A3188 A3189 A3190 A3191 A3192 A3193 A3194 A3195 A3196 A3197 A3198 A3199 A3200 A3201 A3202 A3203 A3204 A3205 A3206 A3207 A3208 A3209 A3210 A3211 A3212 A3213 A3214 A3215 A3216 A3217 A3218 A3219 A3220 A3221 A3222 A3223 A3224 A3225 A3226 A3227 A3228 A3229 A3230 A3231 A3232 A3233 A3234 A3235 A3236 A3237 A3238 A3239 A3240 A3241 A3242 A3243 A3244 A3245 A3246 A3247 A3248 A3249 A3250 A3251 A3252 A3253 A3254 A3255 A3256 A3257 A3258 A3259 A3260 A3261 A3262 A3263 A3264 A3265 A3266 A3267 A3268 A3269 A3270 A3271 A3272 A3273 A3274 A3275 A3276 A3277 A3278 A3279 A3280 A3281 A3282 A3283 A3284 A3285 A3286 A3287 A3288 A3289 A3290 A3291 A3292 A3293 A3294 A3295 A3296 A3297 A3298 A3299 A3300 A3301 A3302 A3303 A3304 A3305 A3306 A3307 A3308 A3309 A3310 A3311 A3312 A3313 A3314 A3315 A3316 A3317 A3318 A3319 A3320 A3321 A3322 A3323 A3324 A3325 A3326 A3327 A3328 A3329 A3330 A3331 A3332 A3333 A3334 A3335 A3336 A3337 A3338 A3339 A3340 A3341 A3342 A3343 A3344 A3345 A3346 A3347 A3348 A3349 A3350 A3351 A3352 A3353 A3354 A3355 A3356 A3357 A3358 A3359 A3360 A3361 A3362 A3363 A3364 A3365 A3366 A3367 A3368 A3369 A3370 A3371 A3372 A3373 A3374 A3375 A3376 A3377 A3378 A3379 A3380 A3381 A3382 A3383 A3384 A3385 A3386 A3387 A3388 A3389 A3390 A3391 A3392 A3393 A3394 A3395 A3396 A3397 A3398 A3399 A3400 A3401 A3402 A3403 A3404 A3405 A3406 A3407 A3408 A3409 A3410 A3411 A3412 A3413 A3414 A3415 A3416 A3417 A3418 A3419 A3420 A3421 A3422 A3423 A3424 A3425 A3426 A3427 A3428 A3429 A3430 A3431 A3432 A3433 A3434 A3435 A3436 A3437 A3438 A3439 A3440 A3441 A3442 A3443 A3444 A3445 A3446 A3447 A3448 A3449 A3450 A3451 A3452 A3453 A3454 A3455 A3456 A3457 A3458 A3459 A3460 A3461 A3462 A3463 A3464 A3465 A3466 A3467 A3468 A3469 A3470 A3471 A3472 A3473 A3474 A3475 A3476 A3477 A3478 A3479 A3480 A3481 A3482 A3483 A3484 A3485 A3486 A3487 A3488 A3489 A3490 A3491 A3492 A3493 A3494 A3495 A3496 A3497 A3498 A3499 A3500 A3501 A3502 A3503 A3504 A3505 A3506 A3507 A3508 A3509 A3510 A3511 A3512 A3513 A3514 A3515 A3516 A3517 A3518 A3519 A3520 A3521 A3522 A3523 A3524 A3525 A3526 A3527 A3528 A3529 A3530 A3531 A3532 A3533 A3534 A3535 A3536 A3537 A3538 A3539 A3540 A3541 A3542 A3543 A3544 A3545 A3546 A3547 A3548 A3549 A3550 A3551 A3552 A3553 A3554 A3555 A3556 A3557 A3558 A3559 A3560 A3561 A3562 A3563 A3564 A3565 A3566 A3567 A3568 A3569 A3570 A3571 A3572 A3573 A3574 A3575 A3576 A3577 A3578 A3579 A3580 A3581 A3582 A3583 A3584 A3585 A3586 A3587 A3588 A3589 A3590 A3591 A3592 A3593 A3594 A3595 A3596 A3597 A3598 A3599 A3600 A3601 A3602 A3603 A3604 A3605 A3606 A3607 A3608 A3609 A3610 A3611 A3612 A3613 A3614 A3615 A3616 A3617 A3618 A3619 A3620 A3621 A3622 A3623 A3624 A3625 A3626 A3627 A3628 A3629 A3630 A3631 A3632 A3633 A3634 A3635 A3636 A3637 A3638 A3639 A3640 A3641 A3642 A3643 A3644 A3645 A3646 A3647 A3648 A3649 A3650 A3651 A3652 A3653 A3654 A3655 A3656 A3657 A3658 A3659 A3660 A3661 A3662 A3663 A3664 A3665 A3666 A3667 A3668 A3669 A3670 A3671 A3672 A3673 A3674 A3675 A3676 A3677 A3678 A3679 A3680 A3681 A3682 A3683 A3684 A3685 A3686 A3687 A3688 A3689 A3690 A3691 A3692 A3693 A3694 A3695 A3696 A3697 A3698 A3699 A3700 A3701 A3702 A3703 A3704 A3705 A3706 A3707 A3708 A3709 A3710 A3711 A3712 A3713 A3714 A3715 A3716 A3717 A3718 A3719 A3720 A3721 A3722 A3723 A3724 A3725 A3726 A3727 A3728 A3729 A3730 A3731 A3732 A3733 A3734 A3735 A3736 A3737 A3738 A3739 A3740 A3741 A3742 A3743 A3744 A3745 A3746 A3747 A3748 A3749 A3750 A3751 A3752 A3753 A3754 A3755 A3756 A3757 A3758 A3759 A3760 A3761 A3762 A3763 A3764 A3765 A3766 A3767 A3768 A3769 A3770 A3771 A3772 A3773 A3774 A3775 A3776 A3777 A3778 A3779 A3780 A3781 A3782 A3783 A3784 A3785 A3786 A3787 A3788 A3789 A3790 A3791 A3792 A3793 A3794 A3795 A3796 A3797 A3798 A3799 A3800 A3801 A3802 A3803 A3804 A3805 A3806 A3807 A3808 A3809 A3810 A3811 A3812 A3813 A3814 A3815 A3816 A3817 A3818 A3819 A3820 A3821 A3822 A3823 A3824 A3825 A3826 A3827 A3828 A3829 A3830 A3831 A3832 A3833 A3834 A3835 A3836 A3837 A3838 A3839 A3840 A3841 A3842 A3843 A3844 A3845 A3846 A3847 A3848 A3849 A3850 A3851 A3852 A3853 A3854 A3855 A3856 A3857 A3858 A3859 A3860 A3861 A3862 A3863 A3864 A3865 A3866 A3867 A3868 A3869 A3870 A3871 A3872 A3873 A3874 A3875 A3876 A3877 A3878 A3879 A3880 A3881 A3882 A3883 A3884 A3885 A3886 A3887 A3888 A3889 A3890 A3891 A3892 A3893 A3894 A3895 A3896 A3897 A3898 A3899 A3900 A3901 A3902 A3903 A3904 A3905 A3906 A3907 A3908 A3909 A3910 A3911 A3912 A3913 A3914 A3915 A3916 A3917 A3918 A3919 A3920 A3921 A3922 A3923 A3924 A3925 A3926 A3927 A3928 A3929 A3930 A3931 A3932 A3933 A3934 A3935 A3936 A3937 A3938 A3939 A3940 A3941 A3942 A3943 A3944 A3945 A3946 A3947 A3948 A3949 A3950 A3951 A3952 A3953 A3954 A3955 A3956 A3957 A3958 A3959 A3960 A3961 A3962 A3963 A3964 A3965 A3966 A3967 A3968 A3969 A3970 A3971 A3972 A3973 A3974 A3975 A3976 A3977 A3978 A3979 A3980 A3981 A3982 A3983 A3984 A3985 A3986 A3987 A3988 A3989 A3990 A3991 A3992 A3993 A3994 A3995 A3996 A3997 A3998 A3999 A4000 A4001 A4002 A4003 A4004 A4005 A4006 A4007 A4008 A4009 A4010 A4011 A4012 A4013 A4014 A4015 A4016 A4017 A4018 A4019 A4020 A4021 A4022 A4023 A4024 A4025 A4026 A4027 A4028 A4029 A4030 A4031 A4032 A4033 A4034 A4035 A4036 A4037 A4038 A4039 A4040 A4041 A4042 A4043 A4044 A4045 A4046 A4047 A4048 A4049 A4050 A4051 A4052 A4053 A4054 A4055 A4056 A4057 A4058 A4059 A4060 A4061 A4062 A4063 A4064 A4065 A4066 A4067 A4068 A4069 A4070 A4071" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B1 A11 A110 A326 A111 A4072 A327 A3 A4 A5 A6 A7 A8 A9 A10 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57 A58 A59 A60 A61 A62 A63 A64 A65 A66 A67 A68 A69 A70 A71 A72 A73 A74 A75 A76 A77 A78 A79 A80 A81 A82 A83 A84 A85 A86 A87 A88 A89 A90 A91 A92 A93 A94 A95 A96 A97 A98 A99 A100 A101 A102 A103 A104 A105 A106 A107 A108 A109 A112 A113 A114 A115 A116 A117 A118 A119 A120 A121 A122 A123 A124 A125 A126 A127 A128 A129 A130 A131 A132 A133 A134 A135 A136 A137 A138 A139 A140 A141 A142 A143 A144 A145 A146 A147 A148 A149 A150 A151 A152 A153 A154 A155 A156 A157 A158 A159 A160 A161 A162 A163 A164 A165 A166 A167 A168 A169 A170 A171 A172 A173 A174 A175 A176 A177 A178 A179 A180 A181 A182 A183 A184 A185 A186 A187 A188 A189 A190 A191 A192 A193 A194 A195 A196 A197 A198 A199 A200 A201 A202 A203 A204 A205 A206 A207 A208 A209 A210 A211 A212 A213 A214 A215 A216 A217 A218 A219 A220 A221 A222 A223 A224 A225 A226 A227 A228 A229 A230 A231 A232 A233 A234 A235 A236 A237 A238 A239 A240 A241 A242 A243 A244 A245 A246 A247 A248 A249 A250 A251 A252 A253 A254 A255 A256 A257 A258 A259 A260 A261 A262 A263 A264 A265 A266 A267 A268 A269 A270 A271 A272 A273 A274 A275 A276 A277 A278 A279 A280 A281 A282 A283 A284 A285 A286 A287 A288 A289 A290 A291 A292 A293 A294 A295 A296 A297 A298 A299 A300 A301 A302 A303 A304 A305 A306 A307 A308 A309 A310 A311 A312 A313 A314 A315 A316 A317 A318 A319 A320 A321 A322 A323 A324 A325 A328 A329 A330 A331 A332 A333 A334 A335 A336 A337 A338 A339 A340 A341 A342 A343 A344 A345 A346 A347 A348 A349 A350 A351 A352 A353 A354 A355 A356 A357 A358 A359 A360 A361 A362 A363 A364 A365 A366 A367 A368 A369 A370 A371 A372 A373 A374 A375 A376 A377 A378 A379 A380 A381 A382 A383 A384 A385 A386 A387 A388 A389 A390 A391 A392 A393 A394 A395 A396 A397 A398 A399 A400 A401 A402 A403 A404 A405 A406 A407 A408 A409 A410 A411 A412 A413 A414 A415 A416 A417 A418 A419 A420 A421 A422 A423 A424 A425 A426 A427 A428 A429 A430 A431 A432 A433 A434 A435 A436 A437 A438 A439 A440 A441 A442 A443 A444 A445 A446 A447 A448 A449 A450 A451 A452 A453 A454 A455 A456 A457 A458 A459 A460 A461 A462 A463 A464 A465 A466 A467 A468 A469 A470 A472 A473 A474 A475 A476 A477 A478 A479 A480 A481 A482 A483 A484 A485 A486 A487 A488 A489 A490 A491 A492 A493 A494 A495 A496 A497 A498 A499 A500 A501 A502 A503 A504 A505 A506 A507 A508 A509 A510 A511 A512 A513 A514 A515 A516 A517 A518 A519 A520 A521 A522 A523 A524 A525 A526 A527 A528 A529 A530 A531 A532 A533 A534 A535 A536 A537 A538 A539 A540 A541 A542 A543 A544 A545 A546 A547 A548 A549 A550 A551 A552 A553 A554 A555 A556 A557 A558 A559 A560 A561 A562 A563 A564 A565 A566 A567 A568 A569 A570 A571 A572 A573 A574 A575 A576 A577 A578 A579 A580 A581 A582 A583 A584 A585 A586 A587 A588 A589 A590 A591 A592 A593 A594 A595 A596 A597 A598 A599 A600 A601 A602 A603 A604 A605 A606 A607 A608 A609 A610 A611 A612 A613 A614 A615 A616 A617 A618 A619 A620 A621 A622 A623 A624 A625 A626 A627 A628 A629 A630 A631 A632 A633 A634 A635 A636 A637 A638 A639 A640 A641 A642 A643 A644 A645 A646 A647 A648 A649 A650 A651 A652 A653 A654 A655 A656 A657 A658 A659 A660 A661 A662 A663 A664 A665 A666 A667 A668 A669 A670 A671 A672 A673 A674 A675 A676 A677 A678 A679 A680 A681 A682 A683 A684 A685 A686 A687 A688 A689 A690 A691 A692 A693 A694 A695 A696 A697 A698 A699 A700 A701 A702 A703 A704 A705 A706 A707 A708 A709 A710 A711 A712 A713 A714 A715 A716 A717 A718 A719 A720 A721 A722 A723 A724 A725 A726 A727 A728 A729 A730 A731 A732 A733 A734 A735 A736 A737 A738 A739 A740 A741 A742 A743 A744 A745 A746 A747 A748 A749 A750 A751 A752 A753 A754 A755 A756 A757 A758 A759 A760 A761 A762 A763 A764 A765 A766 A767 A768 A769 A770 A771 A772 A773 A774 A775 A776 A777 A778 A779 A780 A781 A782 A783 A784 A785 A786 A787 A788 A789 A790 A791 A792 A793 A794 A795 A796 A797 A798 A799 A800 A801 A802 A803 A804 A805 A806 A807 A808 A809 A810 A811 A812 A813 A814 A815 A816 A817 A818 A819 A820 A821 A822 A823 A824 A825 A826 A827 A828 A829 A830 A831 A832 A833 A834 A835 A836 A837 A838 A839 A840 A841 A842 A843 A844 A845 A846 A847 A848 A849 A850 A851 A852 A853 A854 A855 A856 A857 A858 A859 A860 A861 A862 A863 A864 A865 A866 A867 A868 A869 A870 A871 A872 A873 A874 A875 A876 A877 A878 A879 A880 A881 A882 A883 A884 A885 A886 A887 A888 A889 A890 A891 A892 A893 A894 A895 A896 A897 A898 A899 A900 A901 A902 A903 A904 A905 A906 A907 A908 A909 A910 A911 A912 A913 A914 A915 A916 A917 A918 A919 A920 A921 A922 A923 A924 A925 A926 A927 A928 A929 A930 A931 A932 A933 A934 A935 A936 A937 A938 A939 A940 A941 A942 A943 A944 A945 A946 A947 A948 A949 A950 A951 A952 A953 A954 A955 A956 A957 A958 A959 A960 A961 A962 A963 A964 A965 A966 A967 A968 A969 A970 A971 A972 A973 A974 A975 A976 A977 A978 A979 A980 A981 A982 A983 A984 A985 A986 A987 A988 A989 A990 A991 A992 A993 A994 A995 A996 A997 A998 A999 A1000 A1001 A1002 A1003 A1004 A1005 A1006 A1007 A1008 A1009 A1010 A1011 A1012 A1013 A1014 A1015 A1016 A1017 A1018 A1019 A1020 A1021 A1022 A1023 A1024 A1025 A1026 A1027 A1028 A1029 A1030 A1031 A1032 A1033 A1034 A1035 A1036 A1037 A1038 A1039 A1040 A1041 A1042 A1043 A1044 A1045 A1046 A1047 A1048 A1049 A1050 A1051 A1052 A1053 A1054 A1055 A1056 A1057 A1058 A1059 A1060 A1061 A1062 A1063 A1064 A1065 A1066 A1067 A1068 A1069 A1070 A1071 A1072 A1073 A1074 A1075 A1076 A1077 A1078 A1079 A1080 A1081 A1082 A1083 A1084 A1085 A1086 A1087 A1088 A1089 A1090 A1091 A1092 A1093 A1094 A1095 A1096 A1097 A1098 A1099 A1100 A1101 A1102 A1103 A1104 A1105 A1106 A1107 A1108 A1109 A1110 A1111 A1112 A1113 A1114 A1115 A1116 A1117 A1118 A1119 A1120 A1121 A1122 A1123 A1124 A1125 A1126 A1127 A1128 A1129 A1130 A1131 A1132 A1133 A1134 A1135 A1136 A1137 A1138 A1139 A1140 A1141 A1142 A1143 A1144 A1145 A1146 A1147 A1148 A1149 A1150 A1151 A1152 A1153 A1154 A1155 A1156 A1157 A1158 A1159 A1160 A1161 A1162 A1163 A1164 A1165 A1166 A1167 A1168 A1169 A1170 A1171 A1172 A1173 A1174 A1175 A1176 A1177 A1178 A1179 A1180 A1181 A1182 A1183 A1184 A1185 A1186 A1187 A1188 A1189 A1190 A1191 A1192 A1193 A1194 A1195 A1196 A1197 A1198 A1199 A1200 A1201 A1202 A1203 A1204 A1205 A1206 A1207 A1208 A1209 A1210 A1211 A1212 A1213 A1214 A1215 A1216 A1217 A1218 A1219 A1220 A1221 A1222 A1223 A1224 A1225 A1226 A1227 A1228 A1229 A1230 A1231 A1232 A1233 A1234 A1235 A1236 A1237 A1238 A1239 A1240 A1241 A1242 A1243 A1244 A1245 A1246 A1247 A1248 A1249 A1250 A1251 A1252 A1253 A1254 A1255 A1256 A1257 A1258 A1259 A1260 A1261 A1262 A1263 A1264 A1265 A1266 A1267 A1268 A1269 A1270 A1271 A1272 A1273 A1274 A1275 A1276 A1277 A1278 A1279 A1280 A1281 A1282 A1283 A1284 A1285 A1286 A1287 A1288 A1289 A1290 A1291 A1292 A1293 A1294 A1295 A1296 A1297 A1298 A1299 A1300 A1301 A1302 A1303 A1304 A1305 A1306 A1307 A1308 A1309 A1310 A1311 A1312 A1313 A1314 A1315 A1316 A1317 A1318 A1319 A1320 A1321 A1322 A1323 A1324 A1325 A1326 A1327 A1328 A1329 A1330 A1331 A1332 A1333 A1334 A1335 A1336 A1337 A1338 A1339 A1340 A1341 A1342 A1343 A1344 A1345 A1346 A1347 A1348 A1349 A1350 A1351 A1352 A1353 A1354 A1355 A1356 A1357 A1358 A1359 A1360 A1361 A1362 A1363 A1364 A1365 A1366 A1367 A1368 A1369 A1370 A1371 A1372 A1373 A1374 A1375 A1376 A1377 A1378 A1379 A1380 A1381 A1382 A1383 A1384 A1385 A1386 A1387 A1388 A1389 A1390 A1391 A1392 A1393 A1394 A1395 A1396 A1397 A1398 A1399 A1400 A1401 A1402 A1403 A1404 A1405 A1406 A1407 A1408 A1409 A1410 A1411 A1412 A1413 A1414 A1415 A1416 A1417 A1418 A1419 A1420 A1421 A1422 A1423 A1424 A1425 A1426 A1427 A1428 A1429 A1430 A1431 A1432 A1433 A1434 A1435 A1436 A1437 A1438 A1439 A1440 A1441 A1442 A1443 A1444 A1445 A1446 A1447 A1448 A1449 A1450 A1451 A1452 A1453 A1454 A1455 A1456 A1457 A1458 A1459 A1460 A1461 A1462 A1463 A1464 A1465 A1466 A1467 A1468 A1469 A1470 A1471 A1472 A1473 A1474 A1475 A1476 A1477 A1478 A1479 A1480 A1481 A1482 A1483 A1484 A1485 A1486 A1487 A1488 A1489 A1490 A1491 A1492 A1493 A1494 A1495 A1496 A1497 A1498 A1499 A1500 A1501 A1502 A1503 A1504 A1505 A1506 A1507 A1508 A1509 A1510 A1511 A1512 A1513 A1514 A1515 A1516 A1517 A1518 A1519 A1520 A1521 A1522 A1523 A1524 A1525 A1526 A1527 A1528 A1529 A1530 A1531 A1532 A1533 A1534 A1535 A1536 A1537 A1538 A1539 A1540 A1541 A1542 A1543 A1544 A1545 A1546 A1547 A1548 A1549 A1550 A1551 A1552 A1553 A1554 A1555 A1556 A1557 A1558 A1559 A1560 A1561 A1562 A1563 A1564 A1565 A1566 A1567 A1568 A1569 A1570 A1571 A1572 A1573 A1574 A1575 A1576 A1577 A1578 A1579 A1580 A1581 A1582 A1583 A1584 A1585 A1586 A1587 A1588 A1589 A1590 A1591 A1592 A1593 A1594 A1595 A1596 A1597 A1598 A1599 A1600 A1601 A1602 A1603 A1604 A1605 A1606 A1607 A1608 A1609 A1610 A1611 A1612 A1613 A1614 A1615 A1616 A1617 A1618 A1619 A1620 A1621 A1622 A1623 A1624 A1625 A1626 A1627 A1628 A1629 A1630 A1631 A1632 A1633 A1634 A1635 A1636 A1637 A1638 A1639 A1640 A1641 A1642 A1643 A1644 A1645 A1646 A1647 A1648 A1649 A1650 A1651 A1652 A1653 A1654 A1655 A1656 A1657 A1658 A1659 A1660 A1661 A1662 A1663 A1664 A1665 A1666 A1667 A1668 A1669 A1670 A1671 A1672 A1673 A1674 A1675 A1676 A1677 A1678 A1679 A1680 A1681 A1682 A1683 A1684 A1685 A1686 A1687 A1688 A1689 A1690 A1691 A1692 A1693 A1694 A1695 A1696 A1697 A1698 A1699 A1700 A1701 A1702 A1703 A1704 A1705 A1706 A1707 A1708 A1709 A1710 A1711 A1712 A1713 A1714 A1715 A1716 A1717 A1718 A1719 A1720 A1721 A1722 A1723 A1724 A1725 A1726 A1727 A1728 A1729 A1730 A1731 A1732 A1733 A1734 A1735 A1736 A1737 A1738 A1739 A1740 A1741 A1742 A1743 A1744 A1745 A1746 A1747 A1748 A1749 A1750 A1751 A1752 A1753 A1754 A1755 A1756 A1757 A1758 A1759 A1760 A1761 A1762 A1763 A1764 A1765 A1766 A1767 A1768 A1769 A1770 A1771 A1772 A1773 A1774 A1775 A1776 A1777 A1778 A1779 A1780 A1781 A1782 A1783 A1784 A1785 A1786 A1787 A1788 A1789 A1790 A1791 A1792 A1793 A1794 A1795 A1796 A1797 A1798 A1799 A1800 A1801 A1802 A1803 A1804 A1805 A1806 A1807 A1808 A1809 A1810 A1811 A1812 A1813 A1814 A1815 A1816 A1817 A1818 A1819 A1820 A1821 A1822 A1823 A1824 A1825 A1826 A1827 A1828 A1829 A1830 A1831 A1832 A1833 A1834 A1835 A1836 A1837 A1838 A1839 A1840 A1841 A1842 A1843 A1844 A1845 A1846 A1847 A1848 A1849 A1850 A1851 A1852 A1853 A1854 A1855 A1856 A1857 A1858 A1859 A1860 A1861 A1862 A1863 A1864 A1865 A1866 A1867 A1868 A1869 A1870 A1871 A1872 A1873 A1874 A1875 A1876 A1877 A1878 A1879 A1880 A1881 A1882 A1883 A1884 A1885 A1886 A1887 A1888 A1889 A1890 A1891 A1892 A1893 A1894 A1895 A1896 A1897 A1898 A1899 A1900 A1901 A1902 A1903 A1904 A1905 A1906 A1907 A1908 A1909 A1910 A1911 A1912 A1913 A1914 A1915 A1916 A1917 A1918 A1919 A1920 A1921 A1922 A1923 A1924 A1925 A1926 A1927 A1928 A1929 A1930 A1931 A1932 A1933 A1934 A1935 A1936 A1937 A1938 A1939 A1940 A1941 A1942 A1943 A1944 A1945 A1946 A1947 A1948 A1949 A1950 A1951 A1952 A1953 A1954 A1955 A1956 A1957 A1958 A1959 A1960 A1961 A1962 A1963 A1964 A1965 A1966 A1967 A1968 A1969 A1970 A1971 A1972 A1973 A1974 A1975 A1976 A1977 A1978 A1979 A1980 A1981 A1982 A1983 A1984 A1985 A1986 A1987 A1988 A1989 A1990 A1991 A1992 A1993 A1994 A1995 A1996 A1997 A1998 A1999 A2000 A2001 A2002 A2003 A2004 A2005 A2006 A2007 A2008 A2009 A2010 A2011 A2012 A2013 A2014 A2015 A2016 A2017 A2018 A2019 A2020 A2021 A2022 A2023 A2024 A2025 A2026 A2027 A2028 A2029 A2030 A2031 A2032 A2033 A2034 A2035 A2036 A2037 A2038 A2039 A2040 A2041 A2042 A2043 A2044 A2045 A2046 A2047 A2048 A2049 A2050 A2051 A2052 A2053 A2054 A2055 A2056 A2057 A2058 A2059 A2060 A2061 A2062 A2063 A2064 A2065 A2066 A2067 A2068 A2069 A2070 A2071 A2072 A2073 A2074 A2075 A2076 A2077 A2078 A2079 A2080 A2081 A2082 A2083 A2084 A2085 A2086 A2087 A2088 A2089 A2090 A2091 A2092 A2093 A2094 A2095 A2096 A2097 A2098 A2099 A2100 A2101 A2102 A2103 A2104 A2105 A2106 A2107 A2108 A2109 A2110 A2111 A2112 A2113 A2114 A2115 A2116 A2117 A2118 A2119 A2120 A2121 A2122 A2123 A2124 A2125 A2126 A2127 A2128 A2129 A2130 A2131 A2132 A2133 A2134 A2135 A2136 A2137 A2138 A2139 A2140 A2141 A2142 A2143 A2144 A2145 A2146 A2147 A2148 A2149 A2150 A2151 A2152 A2153 A2154 A2155 A2156 A2157 A2158 A2159 A2160 A2161 A2162 A2163 A2164 A2165 A2166 A2167 A2168 A2169 A2170 A2171 A2172 A2173 A2174 A2175 A2176 A2177 A2178 A2179 A2180 A2181 A2182 A2183 A2184 A2185 A2186 A2187 A2188 A2189 A2190 A2191 A2192 A2193 A2194 A2195 A2196 A2197 A2198 A2199 A2200 A2201 A2202 A2203 A2204 A2205 A2206 A2207 A2208 A2209 A2210 A2211 A2212 A2213 A2214 A2215 A2216 A2217 A2218 A2219 A2220 A2221 A2222 A2223 A2224 A2225 A2226 A2227 A2228 A2229 A2230 A2231 A2232 A2233 A2234 A2235 A2236 A2237 A2238 A2239 A2240 A2241 A2242 A2243 A2244 A2245 A2246 A2247 A2248 A2249 A2250 A2251 A2252 A2253 A2254 A2255 A2256 A2257 A2258 A2259 A2260 A2261 A2262 A2263 A2264 A2265 A2266 A2267 A2268 A2269 A2270 A2271 A2272 A2273 A2274 A2275 A2276 A2277 A2278 A2279 A2280 A2281 A2282 A2283 A2284 A2285 A2286 A2287 A2288 A2289 A2290 A2291 A2292 A2293 A2294 A2295 A2296 A2297 A2298 A2299 A2300 A2301 A2302 A2303 A2304 A2305 A2306 A2307 A2308 A2309 A2310 A2311 A2312 A2313 A2314 A2315 A2316 A2317 A2318 A2319 A2320 A2321 A2322 A2323 A2324 A2325 A2326 A2327 A2328 A2329 A2330 A2331 A2332 A2333 A2334 A2335 A2336 A2337 A2338 A2339 A2340 A2341 A2342 A2343 A2344 A2345 A2346 A2347 A2348 A2349 A2350 A2351 A2352 A2353 A2354 A2355 A2356 A2357 A2358 A2359 A2360 A2361 A2362 A2363 A2364 A2365 A2366 A2367 A2368 A2369 A2370 A2371 A2372 A2373 A2374 A2375 A2376 A2377 A2378 A2379 A2380 A2381 A2382 A2383 A2384 A2385 A2386 A2387 A2388 A2389 A2390 A2391 A2392 A2393 A2394 A2395 A2396 A2397 A2398 A2399 A2400 A2401 A2402 A2403 A2404 A2405 A2406 A2407 A2408 A2409 A2410 A2411 A2412 A2413 A2414 A2415 A2416 A2417 A2418 A2419 A2420 A2421 A2422 A2423 A2424 A2425 A2426 A2427 A2428 A2429 A2430 A2431 A2432 A2433 A2434 A2435 A2436 A2437 A2438 A2439 A2440 A2441 A2442 A2443 A2444 A2445 A2446 A2447 A2448 A2449 A2450 A2451 A2452 A2453 A2454 A2455 A2456 A2457 A2458 A2459 A2460 A2461 A2462 A2463 A2464 A2465 A2466 A2467 A2468 A2469 A2470 A2471 A2472 A2473 A2474 A2475 A2476 A2477 A2478 A2479 A2480 A2481 A2482 A2483 A2484 A2485 A2486 A2487 A2488 A2489 A2490 A2491 A2492 A2493 A2494 A2495 A2496 A2497 A2498 A2499 A2500 A2501 A2502 A2503 A2504 A2505 A2506 A2507 A2508 A2509 A2510 A2511 A2512 A2513 A2514 A2515 A2516 A2517 A2518 A2519 A2520 A2521 A2522 A2523 A2524 A2525 A2526 A2527 A2528 A2529 A2530 A2531 A2532 A2533 A2534 A2535 A2536 A2537 A2538 A2539 A2540 A2541 A2542 A2543 A2544 A2545 A2546 A2547 A2548 A2549 A2550 A2551 A2552 A2553 A2554 A2555 A2556 A2557 A2558 A2559 A2560 A2561 A2562 A2563 A2564 A2565 A2566 A2567 A2568 A2569 A2570 A2571 A2572 A2573 A2574 A2575 A2576 A2577 A2578 A2579 A2580 A2581 A2582 A2583 A2584 A2585 A2586 A2587 A2588 A2589 A2590 A2591 A2592 A2593 A2594 A2595 A2596 A2597 A2598 A2599 A2600 A2601 A2602 A2603 A2604 A2605 A2606 A2607 A2608 A2609 A2610 A2611 A2612 A2613 A2614 A2615 A2616 A2617 A2618 A2619 A2620 A2621 A2622 A2623 A2624 A2625 A2626 A2627 A2628 A2629 A2630 A2631 A2632 A2633 A2634 A2635 A2636 A2637 A2638 A2639 A2640 A2641 A2642 A2643 A2644 A2645 A2646 A2647 A2648 A2649 A2650 A2651 A2652 A2653 A2654 A2655 A2656 A2657 A2658 A2659 A2660 A2661 A2662 A2663 A2664 A2665 A2666 A2667 A2668 A2669 A2670 A2671 A2672 A2673 A2674 A2675 A2676 A2677 A2678 A2679 A2680 A2681 A2682 A2683 A2684 A2685 A2686 A2687 A2688 A2689 A2690 A2691 A2692 A2693 A2694 A2695 A2696 A2697 A2698 A2699 A2700 A2701 A2702 A2703 A2704 A2705 A2706 A2707 A2708 A2709 A2710 A2711 A2712 A2713 A2714 A2715 A2716 A2717 A2718 A2719 A2720 A2721 A2722 A2723 A2724 A2725 A2726 A2727 A2728 A2729 A2730 A2731 A2732 A2733 A2734 A2735 A2736 A2737 A2738 A2739 A2740 A2741 A2742 A2743 A2744 A2745 A2746 A2747 A2748 A2749 A2750 A2751 A2752 A2753 A2754 A2755 A2756 A2757 A2758 A2759 A2760 A2761 A2762 A2763 A2764 A2765 A2766 A2767 A2768 A2769 A2770 A2771 A2772 A2773 A2774 A2775 A2776 A2777 A2778 A2779 A2780 A2781 A2782 A2783 A2784 A2785 A2786 A2787 A2788 A2789 A2790 A2791 A2792 A2793 A2794 A2795 A2796 A2797 A2798 A2799 A2800 A2801 A2802 A2803 A2804 A2805 A2806 A2807 A2808 A2809 A2810 A2811 A2812 A2813 A2814 A2815 A2816 A2817 A2818 A2819 A2820 A2821 A2822 A2823 A2824 A2825 A2826 A2827 A2828 A2829 A2830 A2831 A2832 A2833 A2834 A2835 A2836 A2837 A2838 A2839 A2840 A2841 A2842 A2843 A2844 A2845 A2846 A2847 A2848 A2849 A2850 A2851 A2852 A2853 A2854 A2855 A2856 A2857 A2858 A2859 A2860 A2861 A2862 A2863 A2864 A2865 A2866 A2867 A2868 A2869 A2870 A2871 A2872 A2873 A2874 A2875 A2876 A2877 A2878 A2879 A2880 A2881 A2882 A2883 A2884 A2885 A2886 A2887 A2888 A2889 A2890 A2891 A2892 A2893 A2894 A2895 A2896 A2897 A2898 A2899 A2900 A2901 A2902 A2903 A2904 A2905 A2906 A2907 A2908 A2909 A2910 A2911 A2912 A2913 A2914 A2915 A2916 A2917 A2918 A2919 A2920 A2921 A2922 A2923 A2924 A2925 A2926 A2927 A2928 A2929 A2930 A2931 A2932 A2933 A2934 A2935 A2936 A2937 A2938 A2939 A2940 A2941 A2942 A2943 A2944 A2945 A2946 A2947 A2948 A2949 A2950 A2951 A2952 A2953 A2954 A2955 A2956 A2957 A2958 A2959 A2960 A2961 A2962 A2963 A2964 A2965 A2966 A2967 A2968 A2969 A2970 A2971 A2972 A2973 A2974 A2975 A2976 A2977 A2978 A2979 A2980 A2981 A2982 A2983 A2984 A2985 A2986 A2987 A2988 A2989 A2990 A2991 A2992 A2993 A2994 A2995 A2996 A2997 A2998 A2999 A3000 A3001 A3002 A3003 A3004 A3005 A3006 A3007 A3008 A3009 A3010 A3011 A3012 A3013 A3014 A3015 A3016 A3017 A3018 A3019 A3020 A3021 A3022 A3023 A3024 A3025 A3026 A3027 A3028 A3029 A3030 A3031 A3032 A3033 A3034 A3035 A3036 A3037 A3038 A3039 A3040 A3041 A3042 A3043 A3044 A3045 A3046 A3047 A3048 A3049 A3050 A3051 A3052 A3053 A3054 A3055 A3056 A3057 A3058 A3059 A3060 A3061 A3062 A3063 A3064 A3065 A3066 A3067 A3068 A3069 A3070 A3071 A3072 A3073 A3074 A3075 A3076 A3077 A3078 A3079 A3080 A3081 A3082 A3083 A3084 A3085 A3086 A3087 A3088 A3089 A3090 A3091 A3092 A3093 A3094 A3095 A3096 A3097 A3098 A3099 A3100 A3101 A3102 A3103 A3104 A3105 A3106 A3107 A3108 A3109 A3110 A3111 A3112 A3113 A3114 A3115 A3116 A3117 A3118 A3119 A3120 A3121 A3122 A3123 A3124 A3125 A3126 A3127 A3128 A3129 A3130 A3131 A3132 A3133 A3134 A3135 A3136 A3137 A3138 A3139 A3140 A3141 A3142 A3143 A3144 A3145 A3146 A3147 A3148 A3149 A3150 A3151 A3152 A3153 A3154 A3155 A3156 A3157 A3158 A3159 A3160 A3161 A3162 A3163 A3164 A3165 A3166 A3167 A3168 A3169 A3170 A3171 A3172 A3173 A3174 A3175 A3176 A3177 A3178 A3179 A3180 A3181 A3182 A3183 A3184 A3185 A3186 A3187 A3188 A3189 A3190 A3191 A3192 A3193 A3194 A3195 A3196 A3197 A3198 A3199 A3200 A3201 A3202 A3203 A3204 A3205 A3206 A3207 A3208 A3209 A3210 A3211 A3212 A3213 A3214 A3215 A3216 A3217 A3218 A3219 A3220 A3221 A3222 A3223 A3224 A3225 A3226 A3227 A3228 A3229 A3230 A3231 A3232 A3233 A3234 A3235 A3236 A3237 A3238 A3239 A3240 A3241 A3242 A3243 A3244 A3245 A3246 A3247 A3248 A3249 A3250 A3251 A3252 A3253 A3254 A3255 A3256 A3257 A3258 A3259 A3260 A3261 A3262 A3263 A3264 A3265 A3266 A3267 A3268 A3269 A3270 A3271 A3272 A3273 A3274 A3275 A3276 A3277 A3278 A3279 A3280 A3281 A3282 A3283 A3284 A3285 A3286 A3287 A3288 A3289 A3290 A3291 A3292 A3293 A3294 A3295 A3296 A3297 A3298 A3299 A3300 A3301 A3302 A3303 A3304 A3305 A3306 A3307 A3308 A3309 A3310 A3311 A3312 A3313 A3314 A3315 A3316 A3317 A3318 A3319 A3320 A3321 A3322 A3323 A3324 A3325 A3326 A3327 A3328 A3329 A3330 A3331 A3332 A3333 A3334 A3335 A3336 A3337 A3338 A3339 A3340 A3341 A3342 A3343 A3344 A3345 A3346 A3347 A3348 A3349 A3350 A3351 A3352 A3353 A3354 A3355 A3356 A3357 A3358 A3359 A3360 A3361 A3362 A3363 A3364 A3365 A3366 A3367 A3368 A3369 A3370 A3371 A3372 A3373 A3374 A3375 A3376 A3377 A3378 A3379 A3380 A3381 A3382 A3383 A3384 A3385 A3386 A3387 A3388 A3389 A3390 A3391 A3392 A3393 A3394 A3395 A3396 A3397 A3398 A3399 A3400 A3401 A3402 A3403 A3404 A3405 A3406 A3407 A3408 A3409 A3410 A3411 A3412 A3413 A3414 A3415 A3416 A3417 A3418 A3419 A3420 A3421 A3422 A3423 A3424 A3425 A3426 A3427 A3428 A3429 A3430 A3431 A3432 A3433 A3434 A3435 A3436 A3437 A3438 A3439 A3440 A3441 A3442 A3443 A3444 A3445 A3446 A3447 A3448 A3449 A3450 A3451 A3452 A3453 A3454 A3455 A3456 A3457 A3458 A3459 A3460 A3461 A3462 A3463 A3464 A3465 A3466 A3467 A3468 A3469 A3470 A3471 A3472 A3473 A3474 A3475 A3476 A3477 A3478 A3479 A3480 A3481 A3482 A3483 A3484 A3485 A3486 A3487 A3488 A3489 A3490 A3491 A3492 A3493 A3494 A3495 A3496 A3497 A3498 A3499 A3500 A3501 A3502 A3503 A3504 A3505 A3506 A3507 A3508 A3509 A3510 A3511 A3512 A3513 A3514 A3515 A3516 A3517 A3518 A3519 A3520 A3521 A3522 A3523 A3524 A3525 A3526 A3527 A3528 A3529 A3530 A3531 A3532 A3533 A3534 A3535 A3536 A3537 A3538 A3539 A3540 A3541 A3542 A3543 A3544 A3545 A3546 A3547 A3548 A3549 A3550 A3551 A3552 A3553 A3554 A3555 A3556 A3557 A3558 A3559 A3560 A3561 A3562 A3563 A3564 A3565 A3566 A3567 A3568 A3569 A3570 A3571 A3572 A3573 A3574 A3575 A3576 A3577 A3578 A3579 A3580 A3581 A3582 A3583 A3584 A3585 A3586 A3587 A3588 A3589 A3590 A3591 A3592 A3593 A3594 A3595 A3596 A3597 A3598 A3599 A3600 A3601 A3602 A3603 A3604 A3605 A3606 A3607 A3608 A3609 A3610 A3611 A3612 A3613 A3614 A3615 A3616 A3617 A3618 A3619 A3620 A3621 A3622 A3623 A3624 A3625 A3626 A3627 A3628 A3629 A3630 A3631 A3632 A3633 A3634 A3635 A3636 A3637 A3638 A3639 A3640 A3641 A3642 A3643 A3644 A3645 A3646 A3647 A3648 A3649 A3650 A3651 A3652 A3653 A3654 A3655 A3656 A3657 A3658 A3659 A3660 A3661 A3662 A3663 A3664 A3665 A3666 A3667 A3668 A3669 A3670 A3671 A3672 A3673 A3674 A3675 A3676 A3677 A3678 A3679 A3680 A3681 A3682 A3683 A3684 A3685 A3686 A3687 A3688 A3689 A3690 A3691 A3692 A3693 A3694 A3695 A3696 A3697 A3698 A3699 A3700 A3701 A3702 A3703 A3704 A3705 A3706 A3707 A3708 A3709 A3710 A3711 A3712 A3713 A3714 A3715 A3716 A3717 A3718 A3719 A3720 A3721 A3722 A3723 A3724 A3725 A3726 A3727 A3728 A3729 A3730 A3731 A3732 A3733 A3734 A3735 A3736 A3737 A3738 A3739 A3740 A3741 A3742 A3743 A3744 A3745 A3746 A3747 A3748 A3749 A3750 A3751 A3752 A3753 A3754 A3755 A3756 A3757 A3758 A3759 A3760 A3761 A3762 A3763 A3764 A3765 A3766 A3767 A3768 A3769 A3770 A3771 A3772 A3773 A3774 A3775 A3776 A3777 A3778 A3779 A3780 A3781 A3782 A3783 A3784 A3785 A3786 A3787 A3788 A3789 A3790 A3791 A3792 A3793 A3794 A3795 A3796 A3797 A3798 A3799 A3800 A3801 A3802 A3803 A3804 A3805 A3806 A3807 A3808 A3809 A3810 A3811 A3812 A3813 A3814 A3815 A3816 A3817 A3818 A3819 A3820 A3821 A3822 A3823 A3824 A3825 A3826 A3827 A3828 A3829 A3830 A3831 A3832 A3833 A3834 A3835 A3836 A3837 A3838 A3839 A3840 A3841 A3842 A3843 A3844 A3845 A3846 A3847 A3848 A3849 A3850 A3851 A3852 A3853 A3854 A3855 A3856 A3857 A3858 A3859 A3860 A3861 A3862 A3863 A3864 A3865 A3866 A3867 A3868 A3869 A3870 A3871 A3872 A3873 A3874 A3875 A3876 A3877 A3878 A3879 A3880 A3881 A3882 A3883 A3884 A3885 A3886 A3887 A3888 A3889 A3890 A3891 A3892 A3893 A3894 A3895 A3896 A3897 A3898 A3899 A3900 A3901 A3902 A3903 A3904 A3905 A3906 A3907 A3908 A3909 A3910 A3911 A3912 A3913 A3914 A3915 A3916 A3917 A3918 A3919 A3920 A3921 A3922 A3923 A3924 A3925 A3926 A3927 A3928 A3929 A3930 A3931 A3932 A3933 A3934 A3935 A3936 A3937 A3938 A3939 A3940 A3941 A3942 A3943 A3944 A3945 A3946 A3947 A3948 A3949 A3950 A3951 A3952 A3953 A3954 A3955 A3956 A3957 A3958 A3959 A3960 A3961 A3962 A3963 A3964 A3965 A3966 A3967 A3968 A3969 A3970 A3971 A3972 A3973 A3974 A3975 A3976 A3977 A3978 A3979 A3980 A3981 A3982 A3983 A3984 A3985 A3986 A3987 A3988 A3989 A3990 A3991 A3992 A3993 A3994 A3995 A3996 A3997 A3998 A3999 A4000 A4001 A4002 A4003 A4004 A4005 A4006 A4007 A4008 A4009 A4010 A4011 A4012 A4013 A4014 A4015 A4016 A4017 A4018 A4019 A4020 A4021 A4022 A4023 A4024 A4025 A4026 A4027 A4028 A4029 A4030 A4031 A4032 A4033 A4034 A4035 A4036 A4037 A4038 A4039 A4040 A4041 A4042 A4043 A4044 A4045 A4046 A4047 A4048 A4049 A4050 A4051 A4052 A4053 A4054 A4055 A4056 A4057 A4058 A4059 A4060 A4061 A4062 A4063 A4064 A4065 A4066 A4067 A4068 A4069 A4070 A4071" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/generatedUrls.xlsx
+++ b/generatedUrls.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B226"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,735 +412,1807 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/astrophysics</v>
+        <v>https://www.geneseo.edu/admin_systems/</v>
       </c>
       <c r="B2" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astrophysics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/admin_systems/</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/anthropology</v>
+        <v>https://www.geneseo.edu/admissions/</v>
       </c>
       <c r="B3" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/cognitive-science</v>
+        <v>https://www.geneseo.edu/ai/</v>
       </c>
       <c r="B4" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cognitive-science</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ai/</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/applied-physics</v>
+        <v>https://www.geneseo.edu/ace/</v>
       </c>
       <c r="B5" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-physics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ace/</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/astronomy</v>
+        <v>https://www.geneseo.edu/akpsi/</v>
       </c>
       <c r="B6" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/akpsi/</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/applied-mathematics</v>
+        <v>https://www.geneseo.edu/apo/</v>
       </c>
       <c r="B7" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-mathematics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apo/</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/art-history</v>
+        <v>https://www.geneseo.edu/alumni/</v>
       </c>
       <c r="B8" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/art-history</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/alumni/</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/biochemistry</v>
+        <v>https://www.geneseo.edu/american_studies/</v>
       </c>
       <c r="B9" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/american_studies/</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/accounting</v>
+        <v>https://www.geneseo.edu/education/urso/</v>
       </c>
       <c r="B10" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/urso/</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/biology</v>
+        <v>https://www.geneseo.edu/academic-program-finder/anthropology/</v>
       </c>
       <c r="B11" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology/</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/black-and-africana-studies</v>
+        <v>https://www.geneseo.edu/rotc/</v>
       </c>
       <c r="B12" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/black-and-africana-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/rotc/</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/business-studies</v>
+        <v>https://www.geneseo.edu/art_history/</v>
       </c>
       <c r="B13" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/business-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/art_history/</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/cultural-studies-41</v>
+        <v>https://www.geneseo.edu/asian_studies/</v>
       </c>
       <c r="B14" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cultural-studies-41</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/asian_studies/</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/mba-41</v>
+        <v>https://www.geneseo.edu/assessment/</v>
       </c>
       <c r="B15" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/assessment/</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/biophysics</v>
+        <v>https://www.geneseo.edu/beekeeping/</v>
       </c>
       <c r="B16" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biophysics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/beekeeping/</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/communication</v>
+        <v>https://www.geneseo.edu/behavtox/</v>
       </c>
       <c r="B17" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/behavtox/</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/dance</v>
+        <v>https://www.geneseo.edu/academic-program-finder/biochemistry/</v>
       </c>
       <c r="B18" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/dance</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry/</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/chemistry</v>
+        <v>https://www.geneseo.edu/biology/</v>
       </c>
       <c r="B19" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/chemistry</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/biology/</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/conflict-studies</v>
+        <v>https://www.geneseo.edu/biology_club/</v>
       </c>
       <c r="B20" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/conflict-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/biology_club/</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/economics</v>
+        <v>https://www.geneseo.edu/biophysics/</v>
       </c>
       <c r="B21" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/economics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/biophysics/</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/entrepreneurship</v>
+        <v>https://www.geneseo.edu/abs/</v>
       </c>
       <c r="B22" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/entrepreneurship</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/abs/</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/data-analytics</v>
+        <v>https://www.geneseo.edu/bbo/</v>
       </c>
       <c r="B23" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/data-analytics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/bbo/</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/engineering-32</v>
+        <v>https://www.geneseo.edu/cas/</v>
       </c>
       <c r="B24" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/engineering-32</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cas/</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/finance</v>
+        <v>https://www.geneseo.edu/campus_life/</v>
       </c>
       <c r="B25" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/finance</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/campus_life/</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/european-studies</v>
+        <v>https://www.geneseo.edu/safety/</v>
       </c>
       <c r="B26" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/european-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/safety/</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/film-studies</v>
+        <v>https://www.geneseo.edu/events_office/</v>
       </c>
       <c r="B27" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/film-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/events_office/</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/ethics-and-values-society</v>
+        <v>https://www.geneseo.edu/career-design/</v>
       </c>
       <c r="B28" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/ethics-and-values-society</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/career-design/</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/geography</v>
+        <v>https://www.geneseo.edu/cdl/</v>
       </c>
       <c r="B29" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/geography</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cdl/</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/geochemistry</v>
+        <v>https://www.geneseo.edu/globalengagement/</v>
       </c>
       <c r="B30" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/geochemistry</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/globalengagement/</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/history</v>
+        <v>https://www.geneseo.edu/cil/</v>
       </c>
       <c r="B31" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/history</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cil/</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/human-resources-management</v>
+        <v>https://www.geneseo.edu/csjs/</v>
       </c>
       <c r="B32" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/human-resources-management</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/csjs/</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/german</v>
+        <v>https://www.geneseo.edu/aguilar/</v>
       </c>
       <c r="B33" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/german</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/aguilar/</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/jazz-and-american-music-studies</v>
+        <v>https://www.geneseo.edu/freeman/</v>
       </c>
       <c r="B34" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/jazz-and-american-music-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/freeman/</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/human-development</v>
+        <v>https://www.geneseo.edu/chemstockroom/</v>
       </c>
       <c r="B35" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/human-development</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/chemstockroom/</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/international-relations</v>
+        <v>https://www.geneseo.edu/cit/</v>
       </c>
       <c r="B36" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/international-relations</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cit/</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/legal-studies</v>
+        <v>https://www.geneseo.edu/clubsportsassociation/</v>
       </c>
       <c r="B37" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/legal-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/clubsportsassociation/</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/latin-american-and-caribbean-studies</v>
+        <v>https://www.geneseo.edu/comm_mark/</v>
       </c>
       <c r="B38" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/latin-american-and-caribbean-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/comm_mark/</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/linguistics</v>
+        <v>https://www.geneseo.edu/commencement/</v>
       </c>
       <c r="B39" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/linguistics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/commencement/</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/multidisciplinary-creative-practice</v>
+        <v>https://www.geneseo.edu/academic-program-finder/communication/</v>
       </c>
       <c r="B40" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/multidisciplinary-creative-practice</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication/</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/music</v>
+        <v>https://www.geneseo.edu/comparative_literature/</v>
       </c>
       <c r="B41" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/music</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/comparative_literature/</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/medieval-studies</v>
+        <v>https://www.geneseo.edu/construction-projects/</v>
       </c>
       <c r="B42" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/medieval-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/construction-projects/</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/museum-studies</v>
+        <v>https://www.geneseo.edu/geneseo-consumer-information/</v>
       </c>
       <c r="B43" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/museum-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/geneseo-consumer-information/</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/music-composition</v>
+        <v>https://www.geneseo.edu/2025-coplac-summit/</v>
       </c>
       <c r="B44" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/music-composition</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/2025-coplac-summit/</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/geophysics</v>
+        <v>https://www.geneseo.edu/crew/</v>
       </c>
       <c r="B45" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/geophysics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/crew/</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/geological-sciences</v>
+        <v>https://www.geneseo.edu/cstep/</v>
       </c>
       <c r="B46" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/geological-sciences</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cstep/</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/music-conducting</v>
+        <v>https://www.geneseo.edu/curriculum/</v>
       </c>
       <c r="B47" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/music-conducting</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/curriculum/</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/physics</v>
+        <v>https://www.geneseo.edu/geiger/</v>
       </c>
       <c r="B48" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/physics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/geiger/</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/neuroscience</v>
+        <v>https://www.geneseo.edu/dean_students/</v>
       </c>
       <c r="B49" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/neuroscience</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/dean_students/</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/political-science</v>
+        <v>https://www.geneseo.edu/showers/</v>
       </c>
       <c r="B50" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/political-science</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/showers/</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/piano-pedagogy</v>
+        <v>https://www.geneseo.edu/performing-arts/</v>
       </c>
       <c r="B51" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/piano-pedagogy</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/performing-arts/</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/psychology</v>
+        <v>https://www.geneseo.edu/department-of-anthropology/</v>
       </c>
       <c r="B52" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/psychology</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/department-of-anthropology/</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/pre-professional-studies-music-teaching-k-12</v>
+        <v>https://www.geneseo.edu/chemistry/</v>
       </c>
       <c r="B53" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/pre-professional-studies-music-teaching-k-12</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/chemistry/</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/queer-and-sexuality-studies</v>
+        <v>https://www.geneseo.edu/english/</v>
       </c>
       <c r="B54" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/queer-and-sexuality-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/english/</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/public-administration</v>
+        <v>https://www.geneseo.edu/academic_program_keywords/math/</v>
       </c>
       <c r="B55" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/public-administration</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/math/</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/sociology</v>
+        <v>https://www.geneseo.edu/discoverycafe/</v>
       </c>
       <c r="B56" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/sociology</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/discoverycafe/</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/religious-studies</v>
+        <v>https://www.geneseo.edu/academic_program_keywords/diversity/</v>
       </c>
       <c r="B57" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/religious-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/diversity/</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/spanish</v>
+        <v>https://www.geneseo.edu/languages_literatures/adabra/</v>
       </c>
       <c r="B58" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/spanish</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/adabra/</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/sociomedical-sciences</v>
+        <v>https://www.geneseo.edu/chens/</v>
       </c>
       <c r="B59" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/sociomedical-sciences</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/chens/</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/musical-theatre</v>
+        <v>https://www.geneseo.edu/duplicating_center/</v>
       </c>
       <c r="B60" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/musical-theatre</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/duplicating_center/</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/sustainable-systems-41</v>
+        <v>https://www.geneseo.edu/physics/pogo/</v>
       </c>
       <c r="B61" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/sustainable-systems-41</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/physics/pogo/</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/music-business-recording-and-production</v>
+        <v>https://www.geneseo.edu/edgar-fellows/</v>
       </c>
       <c r="B62" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/music-business-recording-and-production</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/edgar-fellows/</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/sustainability-studies</v>
+        <v>https://www.geneseo.edu/eit-accessibility/</v>
       </c>
       <c r="B63" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/sustainability-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/eit-accessibility/</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/theatre</v>
+        <v>https://www.geneseo.edu/emergencies/</v>
       </c>
       <c r="B64" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/theatre</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/emergencies/</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/urban-studies</v>
+        <v>https://www.geneseo.edu/employee-resources/</v>
       </c>
       <c r="B65" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/urban-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/employee-resources/</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/accounting-masters</v>
+        <v>https://www.geneseo.edu/peace_poetry/</v>
       </c>
       <c r="B66" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting-masters</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/peace_poetry/</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/philosophy-politics-and-economics</v>
+        <v>https://www.geneseo.edu/enrollment-management/</v>
       </c>
       <c r="B67" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/philosophy-politics-and-economics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/enrollment-management/</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/individualized-studies</v>
+        <v>https://www.geneseo.edu/ehs/</v>
       </c>
       <c r="B68" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/individualized-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ehs/</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/law-33</v>
+        <v>https://www.geneseo.edu/facilities_services/</v>
       </c>
       <c r="B69" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/law-33</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/facilities_services/</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/history-masters</v>
+        <v>https://www.geneseo.edu/fellowships_and_scholarships/</v>
       </c>
       <c r="B70" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/history-masters</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/fellowships_and_scholarships/</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/marketing</v>
+        <v>https://www.geneseo.edu/admin_finance/</v>
       </c>
       <c r="B71" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/marketing</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/admin_finance/</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/chiropractic-medicine-33-and-43</v>
+        <v>https://www.geneseo.edu/financial_aid/</v>
       </c>
       <c r="B72" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/chiropractic-medicine-33-and-43</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/financial_aid/</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/dentistry-44</v>
+        <v>https://www.geneseo.edu/fulbright/</v>
       </c>
       <c r="B73" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/dentistry-44</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/fulbright/</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/pharmacy-34</v>
+        <v>https://www.geneseo.edu/gagg/</v>
       </c>
       <c r="B74" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/pharmacy-34</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gagg/</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/osteopathic-44</v>
+        <v>https://www.geneseo.edu/geneseo-cares/</v>
       </c>
       <c r="B75" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/osteopathic-44</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/geneseo-cares/</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/podiatry-44</v>
+        <v>https://www.geneseo.edu/gfr/</v>
       </c>
       <c r="B76" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/podiatry-44</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gfr/</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/optometry-34</v>
+        <v>https://www.geneseo.edu/insomnia/</v>
       </c>
       <c r="B77" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/optometry-34</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/insomnia/</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/asian-studies</v>
+        <v>https://www.geneseo.edu/gma/</v>
       </c>
       <c r="B78" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/asian-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gma/</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/physical-therapy-33</v>
+        <v>https://www.geneseo.edu/workout_center/</v>
       </c>
       <c r="B79" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/physical-therapy-33</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/workout_center/</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/american-studies</v>
+        <v>https://www.geneseo.edu/academic-program-finder/geography/</v>
       </c>
       <c r="B80" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/american-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/geography/</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/english</v>
+        <v>https://www.geneseo.edu/academic_program_keywords/geology/</v>
       </c>
       <c r="B81" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/english</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/geology/</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/comparative-literature</v>
+        <v>https://www.geneseo.edu/marcus/</v>
       </c>
       <c r="B82" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/comparative-literature</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/marcus/</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/mathematics</v>
+        <v>https://www.geneseo.edu/global-languages-cultures/</v>
       </c>
       <c r="B83" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mathematics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/global-languages-cultures/</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/native-american-studies</v>
+        <v>https://www.geneseo.edu/gold/</v>
       </c>
       <c r="B84" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/native-american-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gold/</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/french</v>
+        <v>https://www.geneseo.edu/governance/</v>
       </c>
       <c r="B85" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/french</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/governance/</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/philosophy</v>
+        <v>https://www.geneseo.edu/graduate_admissions/</v>
       </c>
       <c r="B86" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/philosophy</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/graduate_admissions/</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/womens-and-gender-studies</v>
+        <v>https://www.geneseo.edu/great_day/</v>
       </c>
       <c r="B87" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/womens-and-gender-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/great_day/</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/adolescence-education</v>
+        <v>https://www.geneseo.edu/greek/</v>
       </c>
       <c r="B88" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/adolescence-education</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/greek/</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/business-administration</v>
+        <v>https://www.geneseo.edu/growstem/</v>
       </c>
       <c r="B89" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/business-administration</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/growstem/</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/early-childhood-and-childhood-education</v>
+        <v>https://www.geneseo.edu/hillel/</v>
       </c>
       <c r="B90" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/early-childhood-and-childhood-education</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/hillel/</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/reading-and-literacy</v>
+        <v>https://www.geneseo.edu/akpsi/history/</v>
       </c>
       <c r="B91" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/reading-and-literacy</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/akpsi/history/</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/teaching-students-disabilities-childhood-education</v>
+        <v>https://www.geneseo.edu/hcml/</v>
       </c>
       <c r="B92" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/teaching-students-disabilities-childhood-education</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/hcml/</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://www.geneseo.edu/hr/</v>
+      </c>
+      <c r="B93" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/hr/</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://www.geneseo.edu/incoming-exchange-students/</v>
+      </c>
+      <c r="B94" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/incoming-exchange-students/</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://www.geneseo.edu/individualized-studies/</v>
+      </c>
+      <c r="B95" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/individualized-studies/</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://www.geneseo.edu/info_security/</v>
+      </c>
+      <c r="B96" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/info_security/</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://www.geneseo.edu/ire/</v>
+      </c>
+      <c r="B97" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/ire/</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://www.geneseo.edu/intd-105-resources/</v>
+      </c>
+      <c r="B98" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/intd-105-resources/</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://www.geneseo.edu/inter_greek_council/</v>
+      </c>
+      <c r="B99" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/inter_greek_council/</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://www.geneseo.edu/internal_control/</v>
+      </c>
+      <c r="B100" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/internal_control/</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://www.geneseo.edu/academic_program_keywords/international/</v>
+      </c>
+      <c r="B101" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/international/</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://www.geneseo.edu/intersession/</v>
+      </c>
+      <c r="B102" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/intersession/</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://www.geneseo.edu/intramurals/</v>
+      </c>
+      <c r="B103" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/intramurals/</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://www.geneseo.edu/applej/</v>
+      </c>
+      <c r="B104" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/applej/</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://www.geneseo.edu/kdp/</v>
+      </c>
+      <c r="B105" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/kdp/</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://www.geneseo.edu/knightln/</v>
+      </c>
+      <c r="B106" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/knightln/</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://www.geneseo.edu/knotmosaics/</v>
+      </c>
+      <c r="B107" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/knotmosaics/</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://www.geneseo.edu/fletcher/</v>
+      </c>
+      <c r="B108" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/fletcher/</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://www.geneseo.edu/latin_american_caribbean_studies/</v>
+      </c>
+      <c r="B109" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/latin_american_caribbean_studies/</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>https://www.geneseo.edu/academic_program_keywords/lgbtq/</v>
+      </c>
+      <c r="B110" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/lgbtq/</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>https://www.geneseo.edu/ware/</v>
+      </c>
+      <c r="B111" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/ware/</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>https://www.geneseo.edu/mail_services/</v>
+      </c>
+      <c r="B112" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/mail_services/</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>https://www.geneseo.edu/makeyourmark/</v>
+      </c>
+      <c r="B113" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/makeyourmark/</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>https://www.geneseo.edu/english/lima/</v>
+      </c>
+      <c r="B114" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/english/lima/</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>https://www.geneseo.edu/masterteacher/</v>
+      </c>
+      <c r="B115" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/masterteacher/</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>https://www.geneseo.edu/mcnair/</v>
+      </c>
+      <c r="B116" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/mcnair/</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>https://www.geneseo.edu/microcredentials/</v>
+      </c>
+      <c r="B117" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/microcredentials/</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>https://www.geneseo.edu/mindbody/</v>
+      </c>
+      <c r="B118" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/mindbody/</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>https://www.geneseo.edu/chang/</v>
+      </c>
+      <c r="B119" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/chang/</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>https://www.geneseo.edu/minority-assoc-prehealth/</v>
+      </c>
+      <c r="B120" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/minority-assoc-prehealth/</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>https://www.geneseo.edu/multicultural/</v>
+      </c>
+      <c r="B121" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/multicultural/</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>https://www.geneseo.edu/muons/</v>
+      </c>
+      <c r="B122" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/muons/</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>https://www.geneseo.edu/native_american_studies/</v>
+      </c>
+      <c r="B123" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/native_american_studies/</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>https://www.geneseo.edu/academic-program-finder/neuroscience/</v>
+      </c>
+      <c r="B124" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/neuroscience/</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>https://www.geneseo.edu/sefa/</v>
+      </c>
+      <c r="B125" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/sefa/</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>https://www.geneseo.edu/newman/</v>
+      </c>
+      <c r="B126" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/newman/</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>https://www.geneseo.edu/news/</v>
+      </c>
+      <c r="B127" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/news/</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>https://www.geneseo.edu/noyce/</v>
+      </c>
+      <c r="B128" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/noyce/</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>https://www.geneseo.edu/nuclear/</v>
+      </c>
+      <c r="B129" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/nuclear/</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>https://www.geneseo.edu/ny-alert/</v>
+      </c>
+      <c r="B130" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/ny-alert/</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>https://www.geneseo.edu/off_campus/</v>
+      </c>
+      <c r="B131" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/off_campus/</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>https://www.geneseo.edu/accessibility-office/</v>
+      </c>
+      <c r="B132" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/accessibility-office/</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>https://www.geneseo.edu/advising/</v>
+      </c>
+      <c r="B133" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/advising/</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>https://www.geneseo.edu/diversity-equity/</v>
+      </c>
+      <c r="B134" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/diversity-equity/</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>https://www.geneseo.edu/government-and-community-relations/</v>
+      </c>
+      <c r="B135" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/government-and-community-relations/</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>https://www.geneseo.edu/president/</v>
+      </c>
+      <c r="B136" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>https://www.geneseo.edu/provost/</v>
+      </c>
+      <c r="B137" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>https://www.geneseo.edu/registrar/</v>
+      </c>
+      <c r="B138" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/registrar/</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>https://www.geneseo.edu/offices/</v>
+      </c>
+      <c r="B139" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/offices/</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>https://www.geneseo.edu/orientation/</v>
+      </c>
+      <c r="B140" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/orientation/</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>https://www.geneseo.edu/file/parents/</v>
+      </c>
+      <c r="B141" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/file/parents/</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>https://www.geneseo.edu/pts/</v>
+      </c>
+      <c r="B142" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/pts/</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>https://www.geneseo.edu/pathways/</v>
+      </c>
+      <c r="B143" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/pathways/</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>https://www.geneseo.edu/peace_action/</v>
+      </c>
+      <c r="B144" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/peace_action/</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>https://www.geneseo.edu/pepband/</v>
+      </c>
+      <c r="B145" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/pepband/</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>https://www.geneseo.edu/performance-social-change/</v>
+      </c>
+      <c r="B146" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/performance-social-change/</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>https://www.geneseo.edu/pbk/</v>
+      </c>
+      <c r="B147" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/pbk/</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>https://www.geneseo.edu/phibetalambda/</v>
+      </c>
+      <c r="B148" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/phibetalambda/</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>https://www.geneseo.edu/academic-program-finder/philosophy/</v>
+      </c>
+      <c r="B149" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/philosophy/</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>https://www.geneseo.edu/philosophy-politics-economics/</v>
+      </c>
+      <c r="B150" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/philosophy-politics-economics/</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>https://www.geneseo.edu/physics/</v>
+      </c>
+      <c r="B151" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/physics/</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>https://www.geneseo.edu/phystec/</v>
+      </c>
+      <c r="B152" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/phystec/</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>https://www.geneseo.edu/facilities_planning/</v>
+      </c>
+      <c r="B153" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/facilities_planning/</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>https://www.geneseo.edu/police/</v>
+      </c>
+      <c r="B154" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/police/</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>https://www.geneseo.edu/policy/</v>
+      </c>
+      <c r="B155" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/policy/</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>https://www.geneseo.edu/academic-program-finder/political-science/</v>
+      </c>
+      <c r="B156" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/political-science/</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>https://www.geneseo.edu/pops/</v>
+      </c>
+      <c r="B157" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>https://www.geneseo.edu/prelaw/</v>
+      </c>
+      <c r="B158" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/prelaw/</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>https://www.geneseo.edu/premed/</v>
+      </c>
+      <c r="B159" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/premed/</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>https://www.geneseo.edu/presidential-search/</v>
+      </c>
+      <c r="B160" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/presidential-search/</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>https://www.geneseo.edu/pride-alliance/</v>
+      </c>
+      <c r="B161" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/pride-alliance/</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>https://www.geneseo.edu/prism/</v>
+      </c>
+      <c r="B162" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/prism/</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>https://www.geneseo.edu/gu/</v>
+      </c>
+      <c r="B163" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/gu/</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>https://www.geneseo.edu/proofspace/</v>
+      </c>
+      <c r="B164" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/proofspace/</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>https://www.geneseo.edu/academic-program-finder/psychology/</v>
+      </c>
+      <c r="B165" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/psychology/</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>https://www.geneseo.edu/psychology_club/</v>
+      </c>
+      <c r="B166" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/psychology_club/</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>https://www.geneseo.edu/purchasing/</v>
+      </c>
+      <c r="B167" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/purchasing/</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>https://www.geneseo.edu/redcross/</v>
+      </c>
+      <c r="B168" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/redcross/</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>https://www.geneseo.edu/redfolder/</v>
+      </c>
+      <c r="B169" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/redfolder/</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>https://www.geneseo.edu/residence-life/</v>
+      </c>
+      <c r="B170" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/residence-life/</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>https://www.geneseo.edu/reunion/</v>
+      </c>
+      <c r="B171" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/reunion/</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>https://www.geneseo.edu/arboretum/</v>
+      </c>
+      <c r="B172" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/arboretum/</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>https://www.geneseo.edu/mcewen/</v>
+      </c>
+      <c r="B173" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/mcewen/</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>https://www.geneseo.edu/safeparty/</v>
+      </c>
+      <c r="B174" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/safeparty/</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>https://www.geneseo.edu/safezone/</v>
+      </c>
+      <c r="B175" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/safezone/</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>https://www.geneseo.edu/bean/</v>
+      </c>
+      <c r="B176" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/bean/</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>https://www.geneseo.edu/iyer/</v>
+      </c>
+      <c r="B177" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/iyer/</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>https://www.geneseo.edu/geneseo_scene/</v>
+      </c>
+      <c r="B178" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/geneseo_scene/</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>https://www.geneseo.edu/sas/</v>
+      </c>
+      <c r="B179" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/sas/</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>https://www.geneseo.edu/business/</v>
+      </c>
+      <c r="B180" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>https://www.geneseo.edu/academic_program_keywords/education/</v>
+      </c>
+      <c r="B181" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/education/</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>https://www.geneseo.edu/scott_giorgis/</v>
+      </c>
+      <c r="B182" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/scott_giorgis/</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>https://www.geneseo.edu/nixon/</v>
+      </c>
+      <c r="B183" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/nixon/</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>https://www.geneseo.edu/shrm/</v>
+      </c>
+      <c r="B184" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/shrm/</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>https://www.geneseo.edu/sprg/</v>
+      </c>
+      <c r="B185" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/sprg/</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>https://www.geneseo.edu/soaringstars/</v>
+      </c>
+      <c r="B186" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/soaringstars/</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>https://www.geneseo.edu/academic-program-finder/sociology/</v>
+      </c>
+      <c r="B187" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/sociology/</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>https://www.geneseo.edu/sociomedical_sciences/</v>
+      </c>
+      <c r="B188" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/sociomedical_sciences/</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>https://www.geneseo.edu/grants/</v>
+      </c>
+      <c r="B189" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/grants/</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>https://www.geneseo.edu/sponsored_research/</v>
+      </c>
+      <c r="B190" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/sponsored_research/</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>https://www.geneseo.edu/strategic-initiatives/</v>
+      </c>
+      <c r="B191" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/strategic-initiatives/</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>https://www.geneseo.edu/spg/</v>
+      </c>
+      <c r="B192" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/spg/</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>https://www.geneseo.edu/student_accounts/</v>
+      </c>
+      <c r="B193" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/student_accounts/</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>https://www.geneseo.edu/sa/</v>
+      </c>
+      <c r="B194" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/sa/</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>https://www.geneseo.edu/sarc/</v>
+      </c>
+      <c r="B195" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/sarc/</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>https://www.geneseo.edu/conduct/</v>
+      </c>
+      <c r="B196" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/conduct/</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>https://www.geneseo.edu/sce/</v>
+      </c>
+      <c r="B197" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/sce/</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>https://www.geneseo.edu/file/handbook/</v>
+      </c>
+      <c r="B198" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/file/handbook/</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>https://www.geneseo.edu/academic_program_keywords/health/</v>
+      </c>
+      <c r="B199" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/health/</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>https://www.geneseo.edu/student_life/</v>
+      </c>
+      <c r="B200" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/student_life/</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>https://www.geneseo.edu/volunteer_center/</v>
+      </c>
+      <c r="B201" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/volunteer_center/</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>https://www.geneseo.edu/file/students/</v>
+      </c>
+      <c r="B202" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/file/students/</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>https://www.geneseo.edu/political_science/study_abroad/</v>
+      </c>
+      <c r="B203" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/political_science/study_abroad/</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>https://www.geneseo.edu/summer-sessions/</v>
+      </c>
+      <c r="B204" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/summer-sessions/</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>https://www.geneseo.edu/sgfcu/</v>
+      </c>
+      <c r="B205" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/sgfcu/</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>https://www.geneseo.edu/support/</v>
+      </c>
+      <c r="B206" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/support/</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>https://www.geneseo.edu/sustainability/</v>
+      </c>
+      <c r="B207" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/sustainability/</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>https://www.geneseo.edu/tlc/</v>
+      </c>
+      <c r="B208" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/tlc/</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>https://www.geneseo.edu/lives/</v>
+      </c>
+      <c r="B209" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/lives/</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>https://www.geneseo.edu/psi_chi/</v>
+      </c>
+      <c r="B210" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/psi_chi/</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>https://www.geneseo.edu/titleix/</v>
+      </c>
+      <c r="B211" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/titleix/</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>https://www.geneseo.edu/tribeta/</v>
+      </c>
+      <c r="B212" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/tribeta/</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>https://www.geneseo.edu/triosss/</v>
+      </c>
+      <c r="B213" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/triosss/</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>https://www.geneseo.edu/uaa/</v>
+      </c>
+      <c r="B214" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/uaa/</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>https://www.geneseo.edu/undergraduate_research/</v>
+      </c>
+      <c r="B215" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/undergraduate_research/</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>https://www.geneseo.edu/ventureworks/</v>
+      </c>
+      <c r="B216" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/ventureworks/</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>https://www.geneseo.edu/veterans/</v>
+      </c>
+      <c r="B217" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/veterans/</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>https://www.geneseo.edu/vote/</v>
+      </c>
+      <c r="B218" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/vote/</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>https://www.geneseo.edu/wadsworth_auditorium/</v>
+      </c>
+      <c r="B219" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wadsworth_auditorium/</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>https://www.geneseo.edu/wellbeing/</v>
+      </c>
+      <c r="B220" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wellbeing/</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>https://www.geneseo.edu/wgsu/</v>
+      </c>
+      <c r="B221" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wgsu/</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>https://www.geneseo.edu/winter_guard/</v>
+      </c>
+      <c r="B222" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/winter_guard/</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>https://www.geneseo.edu/wgst/</v>
+      </c>
+      <c r="B223" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wgst/</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>https://www.geneseo.edu/womens_rugby/</v>
+      </c>
+      <c r="B224" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/womens_rugby/</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>https://www.geneseo.edu/writing-program/</v>
+      </c>
+      <c r="B225" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/writing-program/</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>https://www.geneseo.edu/yoga/</v>
+      </c>
+      <c r="B226" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/yoga/</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B92"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B226"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/generatedUrls.xlsx
+++ b/generatedUrls.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B226"/>
+  <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,1807 +412,1791 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://www.geneseo.edu/admin_systems/</v>
+        <v>https://www.geneseo.edu/ai/</v>
       </c>
       <c r="B2" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/admin_systems/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ai/</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.geneseo.edu/admissions/</v>
+        <v>https://www.geneseo.edu/ace/</v>
       </c>
       <c r="B3" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ace/</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.geneseo.edu/ai/</v>
+        <v>https://www.geneseo.edu/akpsi/</v>
       </c>
       <c r="B4" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/ai/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/akpsi/</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://www.geneseo.edu/ace/</v>
+        <v>https://www.geneseo.edu/apo/</v>
       </c>
       <c r="B5" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/ace/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apo/</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://www.geneseo.edu/akpsi/</v>
+        <v>https://www.geneseo.edu/alumni/</v>
       </c>
       <c r="B6" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/akpsi/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/alumni/</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://www.geneseo.edu/apo/</v>
+        <v>https://www.geneseo.edu/american_studies/</v>
       </c>
       <c r="B7" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/apo/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/american_studies/</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://www.geneseo.edu/alumni/</v>
+        <v>https://www.geneseo.edu/education/urso/</v>
       </c>
       <c r="B8" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/alumni/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/urso/</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://www.geneseo.edu/american_studies/</v>
+        <v>https://www.geneseo.edu/academic-program-finder/anthropology/</v>
       </c>
       <c r="B9" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/american_studies/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology/</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://www.geneseo.edu/education/urso/</v>
+        <v>https://www.geneseo.edu/rotc/</v>
       </c>
       <c r="B10" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/education/urso/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/rotc/</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/anthropology/</v>
+        <v>https://www.geneseo.edu/art_history/</v>
       </c>
       <c r="B11" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/art_history/</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://www.geneseo.edu/rotc/</v>
+        <v>https://www.geneseo.edu/asian_studies/</v>
       </c>
       <c r="B12" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/rotc/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/asian_studies/</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://www.geneseo.edu/art_history/</v>
+        <v>https://www.geneseo.edu/assessment/</v>
       </c>
       <c r="B13" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/art_history/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/assessment/</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://www.geneseo.edu/asian_studies/</v>
+        <v>https://www.geneseo.edu/beekeeping/</v>
       </c>
       <c r="B14" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/asian_studies/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/beekeeping/</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://www.geneseo.edu/assessment/</v>
+        <v>https://www.geneseo.edu/behavtox/</v>
       </c>
       <c r="B15" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/assessment/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/behavtox/</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.geneseo.edu/beekeeping/</v>
+        <v>https://www.geneseo.edu/academic-program-finder/biochemistry/</v>
       </c>
       <c r="B16" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/beekeeping/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry/</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://www.geneseo.edu/behavtox/</v>
+        <v>https://www.geneseo.edu/biology/</v>
       </c>
       <c r="B17" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/behavtox/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/biology/</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/biochemistry/</v>
+        <v>https://www.geneseo.edu/biology_club/</v>
       </c>
       <c r="B18" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/biology_club/</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://www.geneseo.edu/biology/</v>
+        <v>https://www.geneseo.edu/biophysics/</v>
       </c>
       <c r="B19" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/biology/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/biophysics/</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://www.geneseo.edu/biology_club/</v>
+        <v>https://www.geneseo.edu/abs/</v>
       </c>
       <c r="B20" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/biology_club/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/abs/</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.geneseo.edu/biophysics/</v>
+        <v>https://www.geneseo.edu/bbo/</v>
       </c>
       <c r="B21" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/biophysics/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/bbo/</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://www.geneseo.edu/abs/</v>
+        <v>https://www.geneseo.edu/cas/</v>
       </c>
       <c r="B22" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/abs/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cas/</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://www.geneseo.edu/bbo/</v>
+        <v>https://www.geneseo.edu/campus_life/</v>
       </c>
       <c r="B23" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/bbo/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/campus_life/</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://www.geneseo.edu/cas/</v>
+        <v>https://www.geneseo.edu/safety/</v>
       </c>
       <c r="B24" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/cas/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/safety/</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://www.geneseo.edu/campus_life/</v>
+        <v>https://www.geneseo.edu/events_office/</v>
       </c>
       <c r="B25" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/campus_life/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/events_office/</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://www.geneseo.edu/safety/</v>
+        <v>https://www.geneseo.edu/career-design/</v>
       </c>
       <c r="B26" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/safety/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/career-design/</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://www.geneseo.edu/events_office/</v>
+        <v>https://www.geneseo.edu/cdl/</v>
       </c>
       <c r="B27" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/events_office/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cdl/</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://www.geneseo.edu/career-design/</v>
+        <v>https://www.geneseo.edu/globalengagement/</v>
       </c>
       <c r="B28" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/career-design/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/globalengagement/</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://www.geneseo.edu/cdl/</v>
+        <v>https://www.geneseo.edu/cil/</v>
       </c>
       <c r="B29" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/cdl/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cil/</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://www.geneseo.edu/globalengagement/</v>
+        <v>https://www.geneseo.edu/csjs/</v>
       </c>
       <c r="B30" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/globalengagement/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/csjs/</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://www.geneseo.edu/cil/</v>
+        <v>https://www.geneseo.edu/aguilar/</v>
       </c>
       <c r="B31" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/cil/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/aguilar/</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://www.geneseo.edu/csjs/</v>
+        <v>https://www.geneseo.edu/freeman/</v>
       </c>
       <c r="B32" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/csjs/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/freeman/</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://www.geneseo.edu/aguilar/</v>
+        <v>https://www.geneseo.edu/chemstockroom/</v>
       </c>
       <c r="B33" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/aguilar/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/chemstockroom/</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://www.geneseo.edu/freeman/</v>
+        <v>https://www.geneseo.edu/cit/</v>
       </c>
       <c r="B34" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/freeman/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cit/</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://www.geneseo.edu/chemstockroom/</v>
+        <v>https://www.geneseo.edu/clubsportsassociation/</v>
       </c>
       <c r="B35" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/chemstockroom/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/clubsportsassociation/</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://www.geneseo.edu/cit/</v>
+        <v>https://www.geneseo.edu/comm_mark/</v>
       </c>
       <c r="B36" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/cit/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/comm_mark/</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://www.geneseo.edu/clubsportsassociation/</v>
+        <v>https://www.geneseo.edu/commencement/</v>
       </c>
       <c r="B37" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/clubsportsassociation/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/commencement/</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://www.geneseo.edu/comm_mark/</v>
+        <v>https://www.geneseo.edu/academic-program-finder/communication/</v>
       </c>
       <c r="B38" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/comm_mark/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication/</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://www.geneseo.edu/commencement/</v>
+        <v>https://www.geneseo.edu/comparative_literature/</v>
       </c>
       <c r="B39" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/commencement/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/comparative_literature/</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/communication/</v>
+        <v>https://www.geneseo.edu/construction-projects/</v>
       </c>
       <c r="B40" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/construction-projects/</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.geneseo.edu/comparative_literature/</v>
+        <v>https://www.geneseo.edu/geneseo-consumer-information/</v>
       </c>
       <c r="B41" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/comparative_literature/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/geneseo-consumer-information/</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://www.geneseo.edu/construction-projects/</v>
+        <v>https://www.geneseo.edu/2025-coplac-summit/</v>
       </c>
       <c r="B42" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/construction-projects/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/2025-coplac-summit/</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://www.geneseo.edu/geneseo-consumer-information/</v>
+        <v>https://www.geneseo.edu/crew/</v>
       </c>
       <c r="B43" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/geneseo-consumer-information/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/crew/</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://www.geneseo.edu/2025-coplac-summit/</v>
+        <v>https://www.geneseo.edu/cstep/</v>
       </c>
       <c r="B44" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/2025-coplac-summit/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cstep/</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://www.geneseo.edu/crew/</v>
+        <v>https://www.geneseo.edu/curriculum/</v>
       </c>
       <c r="B45" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/crew/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/curriculum/</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://www.geneseo.edu/cstep/</v>
+        <v>https://www.geneseo.edu/geiger/</v>
       </c>
       <c r="B46" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/cstep/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/geiger/</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://www.geneseo.edu/curriculum/</v>
+        <v>https://www.geneseo.edu/dean_students/</v>
       </c>
       <c r="B47" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/curriculum/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/dean_students/</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://www.geneseo.edu/geiger/</v>
+        <v>https://www.geneseo.edu/showers/</v>
       </c>
       <c r="B48" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/geiger/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/showers/</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://www.geneseo.edu/dean_students/</v>
+        <v>https://www.geneseo.edu/performing-arts/</v>
       </c>
       <c r="B49" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/dean_students/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/performing-arts/</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://www.geneseo.edu/showers/</v>
+        <v>https://www.geneseo.edu/department-of-anthropology/</v>
       </c>
       <c r="B50" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/showers/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/department-of-anthropology/</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://www.geneseo.edu/performing-arts/</v>
+        <v>https://www.geneseo.edu/chemistry/</v>
       </c>
       <c r="B51" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/performing-arts/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/chemistry/</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://www.geneseo.edu/department-of-anthropology/</v>
+        <v>https://www.geneseo.edu/english/</v>
       </c>
       <c r="B52" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/department-of-anthropology/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/english/</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://www.geneseo.edu/chemistry/</v>
+        <v>https://www.geneseo.edu/academic_program_keywords/math/</v>
       </c>
       <c r="B53" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/chemistry/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/math/</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://www.geneseo.edu/english/</v>
+        <v>https://www.geneseo.edu/discoverycafe/</v>
       </c>
       <c r="B54" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/english/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/discoverycafe/</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://www.geneseo.edu/academic_program_keywords/math/</v>
+        <v>https://www.geneseo.edu/academic_program_keywords/diversity/</v>
       </c>
       <c r="B55" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/math/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/diversity/</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://www.geneseo.edu/discoverycafe/</v>
+        <v>https://www.geneseo.edu/languages_literatures/adabra/</v>
       </c>
       <c r="B56" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/discoverycafe/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/adabra/</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://www.geneseo.edu/academic_program_keywords/diversity/</v>
+        <v>https://www.geneseo.edu/chens/</v>
       </c>
       <c r="B57" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/diversity/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/chens/</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://www.geneseo.edu/languages_literatures/adabra/</v>
+        <v>https://www.geneseo.edu/duplicating_center/</v>
       </c>
       <c r="B58" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/adabra/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/duplicating_center/</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://www.geneseo.edu/chens/</v>
+        <v>https://www.geneseo.edu/physics/pogo/</v>
       </c>
       <c r="B59" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/chens/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/physics/pogo/</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://www.geneseo.edu/duplicating_center/</v>
+        <v>https://www.geneseo.edu/edgar-fellows/</v>
       </c>
       <c r="B60" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/duplicating_center/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/edgar-fellows/</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://www.geneseo.edu/physics/pogo/</v>
+        <v>https://www.geneseo.edu/eit-accessibility/</v>
       </c>
       <c r="B61" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/physics/pogo/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/eit-accessibility/</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://www.geneseo.edu/edgar-fellows/</v>
+        <v>https://www.geneseo.edu/emergencies/</v>
       </c>
       <c r="B62" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/edgar-fellows/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/emergencies/</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://www.geneseo.edu/eit-accessibility/</v>
+        <v>https://www.geneseo.edu/employee-resources/</v>
       </c>
       <c r="B63" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/eit-accessibility/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/employee-resources/</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://www.geneseo.edu/emergencies/</v>
+        <v>https://www.geneseo.edu/peace_poetry/</v>
       </c>
       <c r="B64" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/emergencies/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/peace_poetry/</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://www.geneseo.edu/employee-resources/</v>
+        <v>https://www.geneseo.edu/enrollment-management/</v>
       </c>
       <c r="B65" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/employee-resources/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/enrollment-management/</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://www.geneseo.edu/peace_poetry/</v>
+        <v>https://www.geneseo.edu/ehs/</v>
       </c>
       <c r="B66" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/peace_poetry/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ehs/</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://www.geneseo.edu/enrollment-management/</v>
+        <v>https://www.geneseo.edu/facilities_services/</v>
       </c>
       <c r="B67" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/enrollment-management/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/facilities_services/</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://www.geneseo.edu/ehs/</v>
+        <v>https://www.geneseo.edu/fellowships_and_scholarships/</v>
       </c>
       <c r="B68" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/ehs/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/fellowships_and_scholarships/</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://www.geneseo.edu/facilities_services/</v>
+        <v>https://www.geneseo.edu/admin_finance/</v>
       </c>
       <c r="B69" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/facilities_services/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/admin_finance/</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://www.geneseo.edu/fellowships_and_scholarships/</v>
+        <v>https://www.geneseo.edu/financial_aid/</v>
       </c>
       <c r="B70" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/fellowships_and_scholarships/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/financial_aid/</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://www.geneseo.edu/admin_finance/</v>
+        <v>https://www.geneseo.edu/fulbright/</v>
       </c>
       <c r="B71" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/admin_finance/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/fulbright/</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://www.geneseo.edu/financial_aid/</v>
+        <v>https://www.geneseo.edu/gagg/</v>
       </c>
       <c r="B72" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/financial_aid/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gagg/</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://www.geneseo.edu/fulbright/</v>
+        <v>https://www.geneseo.edu/geneseo-cares/</v>
       </c>
       <c r="B73" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/fulbright/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/geneseo-cares/</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://www.geneseo.edu/gagg/</v>
+        <v>https://www.geneseo.edu/gfr/</v>
       </c>
       <c r="B74" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/gagg/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gfr/</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://www.geneseo.edu/geneseo-cares/</v>
+        <v>https://www.geneseo.edu/insomnia/</v>
       </c>
       <c r="B75" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/geneseo-cares/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/insomnia/</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://www.geneseo.edu/gfr/</v>
+        <v>https://www.geneseo.edu/gma/</v>
       </c>
       <c r="B76" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/gfr/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gma/</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://www.geneseo.edu/insomnia/</v>
+        <v>https://www.geneseo.edu/workout_center/</v>
       </c>
       <c r="B77" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/insomnia/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/workout_center/</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://www.geneseo.edu/gma/</v>
+        <v>https://www.geneseo.edu/academic-program-finder/geography/</v>
       </c>
       <c r="B78" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/gma/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/geography/</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://www.geneseo.edu/workout_center/</v>
+        <v>https://www.geneseo.edu/academic_program_keywords/geology/</v>
       </c>
       <c r="B79" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/workout_center/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/geology/</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/geography/</v>
+        <v>https://www.geneseo.edu/marcus/</v>
       </c>
       <c r="B80" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/geography/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/marcus/</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://www.geneseo.edu/academic_program_keywords/geology/</v>
+        <v>https://www.geneseo.edu/global-languages-cultures/</v>
       </c>
       <c r="B81" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/geology/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/global-languages-cultures/</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://www.geneseo.edu/marcus/</v>
+        <v>https://www.geneseo.edu/gold/</v>
       </c>
       <c r="B82" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/marcus/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gold/</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://www.geneseo.edu/global-languages-cultures/</v>
+        <v>https://www.geneseo.edu/governance/</v>
       </c>
       <c r="B83" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/global-languages-cultures/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/governance/</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>https://www.geneseo.edu/gold/</v>
+        <v>https://www.geneseo.edu/graduate_admissions/</v>
       </c>
       <c r="B84" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/gold/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/graduate_admissions/</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>https://www.geneseo.edu/governance/</v>
+        <v>https://www.geneseo.edu/great_day/</v>
       </c>
       <c r="B85" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/governance/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/great_day/</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>https://www.geneseo.edu/graduate_admissions/</v>
+        <v>https://www.geneseo.edu/greek/</v>
       </c>
       <c r="B86" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/graduate_admissions/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/greek/</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>https://www.geneseo.edu/great_day/</v>
+        <v>https://www.geneseo.edu/growstem/</v>
       </c>
       <c r="B87" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/great_day/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/growstem/</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>https://www.geneseo.edu/greek/</v>
+        <v>https://www.geneseo.edu/hillel/</v>
       </c>
       <c r="B88" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/greek/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/hillel/</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>https://www.geneseo.edu/growstem/</v>
+        <v>https://www.geneseo.edu/akpsi/history/</v>
       </c>
       <c r="B89" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/growstem/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/akpsi/history/</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>https://www.geneseo.edu/hillel/</v>
+        <v>https://www.geneseo.edu/hcml/</v>
       </c>
       <c r="B90" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/hillel/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/hcml/</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>https://www.geneseo.edu/akpsi/history/</v>
+        <v>https://www.geneseo.edu/hr/</v>
       </c>
       <c r="B91" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/akpsi/history/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/hr/</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>https://www.geneseo.edu/hcml/</v>
+        <v>https://www.geneseo.edu/incoming-exchange-students/</v>
       </c>
       <c r="B92" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/hcml/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/incoming-exchange-students/</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>https://www.geneseo.edu/hr/</v>
+        <v>https://www.geneseo.edu/individualized-studies/</v>
       </c>
       <c r="B93" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/hr/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/individualized-studies/</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>https://www.geneseo.edu/incoming-exchange-students/</v>
+        <v>https://www.geneseo.edu/info_security/</v>
       </c>
       <c r="B94" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/incoming-exchange-students/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/info_security/</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>https://www.geneseo.edu/individualized-studies/</v>
+        <v>https://www.geneseo.edu/ire/</v>
       </c>
       <c r="B95" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/individualized-studies/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ire/</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>https://www.geneseo.edu/info_security/</v>
+        <v>https://www.geneseo.edu/intd-105-resources/</v>
       </c>
       <c r="B96" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/info_security/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/intd-105-resources/</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>https://www.geneseo.edu/ire/</v>
+        <v>https://www.geneseo.edu/inter_greek_council/</v>
       </c>
       <c r="B97" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/ire/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/inter_greek_council/</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>https://www.geneseo.edu/intd-105-resources/</v>
+        <v>https://www.geneseo.edu/internal_control/</v>
       </c>
       <c r="B98" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/intd-105-resources/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/internal_control/</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>https://www.geneseo.edu/inter_greek_council/</v>
+        <v>https://www.geneseo.edu/academic_program_keywords/international/</v>
       </c>
       <c r="B99" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/inter_greek_council/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/international/</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>https://www.geneseo.edu/internal_control/</v>
+        <v>https://www.geneseo.edu/intersession/</v>
       </c>
       <c r="B100" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/internal_control/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/intersession/</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>https://www.geneseo.edu/academic_program_keywords/international/</v>
+        <v>https://www.geneseo.edu/intramurals/</v>
       </c>
       <c r="B101" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/international/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/intramurals/</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>https://www.geneseo.edu/intersession/</v>
+        <v>https://www.geneseo.edu/applej/</v>
       </c>
       <c r="B102" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/intersession/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/applej/</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>https://www.geneseo.edu/intramurals/</v>
+        <v>https://www.geneseo.edu/kdp/</v>
       </c>
       <c r="B103" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/intramurals/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/kdp/</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>https://www.geneseo.edu/applej/</v>
+        <v>https://www.geneseo.edu/knightln/</v>
       </c>
       <c r="B104" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/applej/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/knightln/</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>https://www.geneseo.edu/kdp/</v>
+        <v>https://www.geneseo.edu/knotmosaics/</v>
       </c>
       <c r="B105" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/kdp/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/knotmosaics/</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>https://www.geneseo.edu/knightln/</v>
+        <v>https://www.geneseo.edu/fletcher/</v>
       </c>
       <c r="B106" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/knightln/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/fletcher/</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>https://www.geneseo.edu/knotmosaics/</v>
+        <v>https://www.geneseo.edu/latin_american_caribbean_studies/</v>
       </c>
       <c r="B107" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/knotmosaics/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/latin_american_caribbean_studies/</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>https://www.geneseo.edu/fletcher/</v>
+        <v>https://www.geneseo.edu/academic_program_keywords/lgbtq/</v>
       </c>
       <c r="B108" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/fletcher/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/lgbtq/</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>https://www.geneseo.edu/latin_american_caribbean_studies/</v>
+        <v>https://www.geneseo.edu/ware/</v>
       </c>
       <c r="B109" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/latin_american_caribbean_studies/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ware/</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>https://www.geneseo.edu/academic_program_keywords/lgbtq/</v>
+        <v>https://www.geneseo.edu/mail_services/</v>
       </c>
       <c r="B110" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/lgbtq/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/mail_services/</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>https://www.geneseo.edu/ware/</v>
+        <v>https://www.geneseo.edu/makeyourmark/</v>
       </c>
       <c r="B111" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/ware/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/makeyourmark/</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>https://www.geneseo.edu/mail_services/</v>
+        <v>https://www.geneseo.edu/english/lima/</v>
       </c>
       <c r="B112" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/mail_services/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/english/lima/</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>https://www.geneseo.edu/makeyourmark/</v>
+        <v>https://www.geneseo.edu/masterteacher/</v>
       </c>
       <c r="B113" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/makeyourmark/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/masterteacher/</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>https://www.geneseo.edu/english/lima/</v>
+        <v>https://www.geneseo.edu/mcnair/</v>
       </c>
       <c r="B114" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/english/lima/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/mcnair/</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>https://www.geneseo.edu/masterteacher/</v>
+        <v>https://www.geneseo.edu/microcredentials/</v>
       </c>
       <c r="B115" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/masterteacher/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/microcredentials/</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>https://www.geneseo.edu/mcnair/</v>
+        <v>https://www.geneseo.edu/mindbody/</v>
       </c>
       <c r="B116" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/mcnair/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/mindbody/</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>https://www.geneseo.edu/microcredentials/</v>
+        <v>https://www.geneseo.edu/chang/</v>
       </c>
       <c r="B117" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/microcredentials/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/chang/</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>https://www.geneseo.edu/mindbody/</v>
+        <v>https://www.geneseo.edu/minority-assoc-prehealth/</v>
       </c>
       <c r="B118" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/mindbody/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/minority-assoc-prehealth/</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>https://www.geneseo.edu/chang/</v>
+        <v>https://www.geneseo.edu/multicultural/</v>
       </c>
       <c r="B119" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/chang/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/multicultural/</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>https://www.geneseo.edu/minority-assoc-prehealth/</v>
+        <v>https://www.geneseo.edu/muons/</v>
       </c>
       <c r="B120" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/minority-assoc-prehealth/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/muons/</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>https://www.geneseo.edu/multicultural/</v>
+        <v>https://www.geneseo.edu/native_american_studies/</v>
       </c>
       <c r="B121" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/multicultural/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/native_american_studies/</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>https://www.geneseo.edu/muons/</v>
+        <v>https://www.geneseo.edu/academic-program-finder/neuroscience/</v>
       </c>
       <c r="B122" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/muons/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/neuroscience/</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>https://www.geneseo.edu/native_american_studies/</v>
+        <v>https://www.geneseo.edu/sefa/</v>
       </c>
       <c r="B123" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/native_american_studies/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sefa/</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/neuroscience/</v>
+        <v>https://www.geneseo.edu/newman/</v>
       </c>
       <c r="B124" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/neuroscience/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/newman/</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>https://www.geneseo.edu/sefa/</v>
+        <v>https://www.geneseo.edu/news/</v>
       </c>
       <c r="B125" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sefa/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/news/</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>https://www.geneseo.edu/newman/</v>
+        <v>https://www.geneseo.edu/noyce/</v>
       </c>
       <c r="B126" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/newman/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/noyce/</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>https://www.geneseo.edu/news/</v>
+        <v>https://www.geneseo.edu/nuclear/</v>
       </c>
       <c r="B127" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/news/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/nuclear/</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>https://www.geneseo.edu/noyce/</v>
+        <v>https://www.geneseo.edu/ny-alert/</v>
       </c>
       <c r="B128" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/noyce/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ny-alert/</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>https://www.geneseo.edu/nuclear/</v>
+        <v>https://www.geneseo.edu/off_campus/</v>
       </c>
       <c r="B129" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/nuclear/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/off_campus/</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>https://www.geneseo.edu/ny-alert/</v>
+        <v>https://www.geneseo.edu/accessibility-office/</v>
       </c>
       <c r="B130" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/ny-alert/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/accessibility-office/</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>https://www.geneseo.edu/off_campus/</v>
+        <v>https://www.geneseo.edu/advising/</v>
       </c>
       <c r="B131" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/off_campus/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/advising/</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>https://www.geneseo.edu/accessibility-office/</v>
+        <v>https://www.geneseo.edu/diversity-equity/</v>
       </c>
       <c r="B132" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/accessibility-office/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/diversity-equity/</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>https://www.geneseo.edu/advising/</v>
+        <v>https://www.geneseo.edu/government-and-community-relations/</v>
       </c>
       <c r="B133" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/advising/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/government-and-community-relations/</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>https://www.geneseo.edu/diversity-equity/</v>
+        <v>https://www.geneseo.edu/president/</v>
       </c>
       <c r="B134" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/diversity-equity/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>https://www.geneseo.edu/government-and-community-relations/</v>
+        <v>https://www.geneseo.edu/provost/</v>
       </c>
       <c r="B135" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/government-and-community-relations/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>https://www.geneseo.edu/president/</v>
+        <v>https://www.geneseo.edu/registrar/</v>
       </c>
       <c r="B136" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/president/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/registrar/</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>https://www.geneseo.edu/provost/</v>
+        <v>https://www.geneseo.edu/offices/</v>
       </c>
       <c r="B137" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/provost/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/offices/</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>https://www.geneseo.edu/registrar/</v>
+        <v>https://www.geneseo.edu/orientation/</v>
       </c>
       <c r="B138" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/registrar/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/orientation/</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>https://www.geneseo.edu/offices/</v>
+        <v>https://www.geneseo.edu/file/parents/</v>
       </c>
       <c r="B139" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/offices/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/file/parents/</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>https://www.geneseo.edu/orientation/</v>
+        <v>https://www.geneseo.edu/pts/</v>
       </c>
       <c r="B140" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/orientation/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pts/</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>https://www.geneseo.edu/file/parents/</v>
+        <v>https://www.geneseo.edu/pathways/</v>
       </c>
       <c r="B141" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/file/parents/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pathways/</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>https://www.geneseo.edu/pts/</v>
+        <v>https://www.geneseo.edu/peace_action/</v>
       </c>
       <c r="B142" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/pts/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/peace_action/</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>https://www.geneseo.edu/pathways/</v>
+        <v>https://www.geneseo.edu/pepband/</v>
       </c>
       <c r="B143" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/pathways/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pepband/</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>https://www.geneseo.edu/peace_action/</v>
+        <v>https://www.geneseo.edu/performance-social-change/</v>
       </c>
       <c r="B144" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/peace_action/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/performance-social-change/</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>https://www.geneseo.edu/pepband/</v>
+        <v>https://www.geneseo.edu/pbk/</v>
       </c>
       <c r="B145" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/pepband/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pbk/</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>https://www.geneseo.edu/performance-social-change/</v>
+        <v>https://www.geneseo.edu/phibetalambda/</v>
       </c>
       <c r="B146" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/performance-social-change/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/phibetalambda/</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>https://www.geneseo.edu/pbk/</v>
+        <v>https://www.geneseo.edu/academic-program-finder/philosophy/</v>
       </c>
       <c r="B147" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/pbk/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/philosophy/</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>https://www.geneseo.edu/phibetalambda/</v>
+        <v>https://www.geneseo.edu/philosophy-politics-economics/</v>
       </c>
       <c r="B148" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/phibetalambda/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/philosophy-politics-economics/</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/philosophy/</v>
+        <v>https://www.geneseo.edu/physics/</v>
       </c>
       <c r="B149" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/philosophy/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/physics/</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>https://www.geneseo.edu/philosophy-politics-economics/</v>
+        <v>https://www.geneseo.edu/phystec/</v>
       </c>
       <c r="B150" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/philosophy-politics-economics/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/phystec/</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>https://www.geneseo.edu/physics/</v>
+        <v>https://www.geneseo.edu/facilities_planning/</v>
       </c>
       <c r="B151" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/physics/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/facilities_planning/</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>https://www.geneseo.edu/phystec/</v>
+        <v>https://www.geneseo.edu/police/</v>
       </c>
       <c r="B152" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/phystec/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/police/</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>https://www.geneseo.edu/facilities_planning/</v>
+        <v>https://www.geneseo.edu/policy/</v>
       </c>
       <c r="B153" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/facilities_planning/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/policy/</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>https://www.geneseo.edu/police/</v>
+        <v>https://www.geneseo.edu/academic-program-finder/political-science/</v>
       </c>
       <c r="B154" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/police/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/political-science/</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>https://www.geneseo.edu/policy/</v>
+        <v>https://www.geneseo.edu/pops/</v>
       </c>
       <c r="B155" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/policy/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/political-science/</v>
+        <v>https://www.geneseo.edu/prelaw/</v>
       </c>
       <c r="B156" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/political-science/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/prelaw/</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>https://www.geneseo.edu/pops/</v>
+        <v>https://www.geneseo.edu/premed/</v>
       </c>
       <c r="B157" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/pops/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/premed/</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>https://www.geneseo.edu/prelaw/</v>
+        <v>https://www.geneseo.edu/presidential-search/</v>
       </c>
       <c r="B158" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/prelaw/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/presidential-search/</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>https://www.geneseo.edu/premed/</v>
+        <v>https://www.geneseo.edu/pride-alliance/</v>
       </c>
       <c r="B159" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/premed/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pride-alliance/</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>https://www.geneseo.edu/presidential-search/</v>
+        <v>https://www.geneseo.edu/prism/</v>
       </c>
       <c r="B160" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/presidential-search/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/prism/</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>https://www.geneseo.edu/pride-alliance/</v>
+        <v>https://www.geneseo.edu/gu/</v>
       </c>
       <c r="B161" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/pride-alliance/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gu/</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>https://www.geneseo.edu/prism/</v>
+        <v>https://www.geneseo.edu/proofspace/</v>
       </c>
       <c r="B162" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/prism/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/proofspace/</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>https://www.geneseo.edu/gu/</v>
+        <v>https://www.geneseo.edu/academic-program-finder/psychology/</v>
       </c>
       <c r="B163" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/gu/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/psychology/</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>https://www.geneseo.edu/proofspace/</v>
+        <v>https://www.geneseo.edu/psychology_club/</v>
       </c>
       <c r="B164" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/proofspace/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/psychology_club/</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/psychology/</v>
+        <v>https://www.geneseo.edu/purchasing/</v>
       </c>
       <c r="B165" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/psychology/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/purchasing/</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>https://www.geneseo.edu/psychology_club/</v>
+        <v>https://www.geneseo.edu/redcross/</v>
       </c>
       <c r="B166" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/psychology_club/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/redcross/</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>https://www.geneseo.edu/purchasing/</v>
+        <v>https://www.geneseo.edu/redfolder/</v>
       </c>
       <c r="B167" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/purchasing/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/redfolder/</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>https://www.geneseo.edu/redcross/</v>
+        <v>https://www.geneseo.edu/residence-life/</v>
       </c>
       <c r="B168" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/redcross/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/residence-life/</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>https://www.geneseo.edu/redfolder/</v>
+        <v>https://www.geneseo.edu/reunion/</v>
       </c>
       <c r="B169" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/redfolder/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/reunion/</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>https://www.geneseo.edu/residence-life/</v>
+        <v>https://www.geneseo.edu/arboretum/</v>
       </c>
       <c r="B170" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/residence-life/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/arboretum/</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>https://www.geneseo.edu/reunion/</v>
+        <v>https://www.geneseo.edu/mcewen/</v>
       </c>
       <c r="B171" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/reunion/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/mcewen/</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>https://www.geneseo.edu/arboretum/</v>
+        <v>https://www.geneseo.edu/safeparty/</v>
       </c>
       <c r="B172" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/arboretum/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/safeparty/</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>https://www.geneseo.edu/mcewen/</v>
+        <v>https://www.geneseo.edu/safezone/</v>
       </c>
       <c r="B173" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/mcewen/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/safezone/</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>https://www.geneseo.edu/safeparty/</v>
+        <v>https://www.geneseo.edu/bean/</v>
       </c>
       <c r="B174" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/safeparty/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/bean/</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>https://www.geneseo.edu/safezone/</v>
+        <v>https://www.geneseo.edu/iyer/</v>
       </c>
       <c r="B175" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/safezone/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/iyer/</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>https://www.geneseo.edu/bean/</v>
+        <v>https://www.geneseo.edu/geneseo_scene/</v>
       </c>
       <c r="B176" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/bean/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/geneseo_scene/</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>https://www.geneseo.edu/iyer/</v>
+        <v>https://www.geneseo.edu/sas/</v>
       </c>
       <c r="B177" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/iyer/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sas/</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>https://www.geneseo.edu/geneseo_scene/</v>
+        <v>https://www.geneseo.edu/business/</v>
       </c>
       <c r="B178" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/geneseo_scene/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>https://www.geneseo.edu/sas/</v>
+        <v>https://www.geneseo.edu/academic_program_keywords/education/</v>
       </c>
       <c r="B179" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sas/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/education/</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>https://www.geneseo.edu/business/</v>
+        <v>https://www.geneseo.edu/scott_giorgis/</v>
       </c>
       <c r="B180" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/business/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/scott_giorgis/</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>https://www.geneseo.edu/academic_program_keywords/education/</v>
+        <v>https://www.geneseo.edu/nixon/</v>
       </c>
       <c r="B181" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/education/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/nixon/</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>https://www.geneseo.edu/scott_giorgis/</v>
+        <v>https://www.geneseo.edu/shrm/</v>
       </c>
       <c r="B182" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/scott_giorgis/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/shrm/</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>https://www.geneseo.edu/nixon/</v>
+        <v>https://www.geneseo.edu/sprg/</v>
       </c>
       <c r="B183" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/nixon/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sprg/</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>https://www.geneseo.edu/shrm/</v>
+        <v>https://www.geneseo.edu/soaringstars/</v>
       </c>
       <c r="B184" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/shrm/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/soaringstars/</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>https://www.geneseo.edu/sprg/</v>
+        <v>https://www.geneseo.edu/academic-program-finder/sociology/</v>
       </c>
       <c r="B185" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sprg/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/sociology/</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>https://www.geneseo.edu/soaringstars/</v>
+        <v>https://www.geneseo.edu/sociomedical_sciences/</v>
       </c>
       <c r="B186" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/soaringstars/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sociomedical_sciences/</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>https://www.geneseo.edu/academic-program-finder/sociology/</v>
+        <v>https://www.geneseo.edu/grants/</v>
       </c>
       <c r="B187" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/sociology/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/grants/</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>https://www.geneseo.edu/sociomedical_sciences/</v>
+        <v>https://www.geneseo.edu/sponsored_research/</v>
       </c>
       <c r="B188" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sociomedical_sciences/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sponsored_research/</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>https://www.geneseo.edu/grants/</v>
+        <v>https://www.geneseo.edu/strategic-initiatives/</v>
       </c>
       <c r="B189" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/grants/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/strategic-initiatives/</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>https://www.geneseo.edu/sponsored_research/</v>
+        <v>https://www.geneseo.edu/spg/</v>
       </c>
       <c r="B190" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sponsored_research/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/spg/</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>https://www.geneseo.edu/strategic-initiatives/</v>
+        <v>https://www.geneseo.edu/student_accounts/</v>
       </c>
       <c r="B191" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/strategic-initiatives/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/student_accounts/</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>https://www.geneseo.edu/spg/</v>
+        <v>https://www.geneseo.edu/sa/</v>
       </c>
       <c r="B192" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/spg/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sa/</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>https://www.geneseo.edu/student_accounts/</v>
+        <v>https://www.geneseo.edu/sarc/</v>
       </c>
       <c r="B193" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/student_accounts/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sarc/</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>https://www.geneseo.edu/sa/</v>
+        <v>https://www.geneseo.edu/conduct/</v>
       </c>
       <c r="B194" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sa/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/conduct/</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>https://www.geneseo.edu/sarc/</v>
+        <v>https://www.geneseo.edu/sce/</v>
       </c>
       <c r="B195" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sarc/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sce/</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>https://www.geneseo.edu/conduct/</v>
+        <v>https://www.geneseo.edu/file/handbook/</v>
       </c>
       <c r="B196" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/conduct/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/file/handbook/</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>https://www.geneseo.edu/sce/</v>
+        <v>https://www.geneseo.edu/academic_program_keywords/health/</v>
       </c>
       <c r="B197" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sce/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/health/</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>https://www.geneseo.edu/file/handbook/</v>
+        <v>https://www.geneseo.edu/student_life/</v>
       </c>
       <c r="B198" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/file/handbook/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/student_life/</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>https://www.geneseo.edu/academic_program_keywords/health/</v>
+        <v>https://www.geneseo.edu/volunteer_center/</v>
       </c>
       <c r="B199" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic_program_keywords/health/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/volunteer_center/</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>https://www.geneseo.edu/student_life/</v>
+        <v>https://www.geneseo.edu/file/students/</v>
       </c>
       <c r="B200" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/student_life/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/file/students/</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>https://www.geneseo.edu/volunteer_center/</v>
+        <v>https://www.geneseo.edu/political_science/study_abroad/</v>
       </c>
       <c r="B201" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/volunteer_center/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/political_science/study_abroad/</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>https://www.geneseo.edu/file/students/</v>
+        <v>https://www.geneseo.edu/summer-sessions/</v>
       </c>
       <c r="B202" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/file/students/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/summer-sessions/</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>https://www.geneseo.edu/political_science/study_abroad/</v>
+        <v>https://www.geneseo.edu/sgfcu/</v>
       </c>
       <c r="B203" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/political_science/study_abroad/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sgfcu/</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>https://www.geneseo.edu/summer-sessions/</v>
+        <v>https://www.geneseo.edu/support/</v>
       </c>
       <c r="B204" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/summer-sessions/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/support/</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>https://www.geneseo.edu/sgfcu/</v>
+        <v>https://www.geneseo.edu/sustainability/</v>
       </c>
       <c r="B205" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sgfcu/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sustainability/</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>https://www.geneseo.edu/support/</v>
+        <v>https://www.geneseo.edu/tlc/</v>
       </c>
       <c r="B206" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/support/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tlc/</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>https://www.geneseo.edu/sustainability/</v>
+        <v>https://www.geneseo.edu/lives/</v>
       </c>
       <c r="B207" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sustainability/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/lives/</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>https://www.geneseo.edu/tlc/</v>
+        <v>https://www.geneseo.edu/psi_chi/</v>
       </c>
       <c r="B208" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/tlc/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/psi_chi/</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>https://www.geneseo.edu/lives/</v>
+        <v>https://www.geneseo.edu/titleix/</v>
       </c>
       <c r="B209" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/lives/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/titleix/</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>https://www.geneseo.edu/psi_chi/</v>
+        <v>https://www.geneseo.edu/tribeta/</v>
       </c>
       <c r="B210" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/psi_chi/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tribeta/</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>https://www.geneseo.edu/titleix/</v>
+        <v>https://www.geneseo.edu/triosss/</v>
       </c>
       <c r="B211" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/titleix/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/triosss/</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>https://www.geneseo.edu/tribeta/</v>
+        <v>https://www.geneseo.edu/uaa/</v>
       </c>
       <c r="B212" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/tribeta/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/uaa/</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>https://www.geneseo.edu/triosss/</v>
+        <v>https://www.geneseo.edu/undergraduate_research/</v>
       </c>
       <c r="B213" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/triosss/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/undergraduate_research/</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>https://www.geneseo.edu/uaa/</v>
+        <v>https://www.geneseo.edu/ventureworks/</v>
       </c>
       <c r="B214" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/uaa/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ventureworks/</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>https://www.geneseo.edu/undergraduate_research/</v>
+        <v>https://www.geneseo.edu/veterans/</v>
       </c>
       <c r="B215" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/undergraduate_research/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/veterans/</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>https://www.geneseo.edu/ventureworks/</v>
+        <v>https://www.geneseo.edu/vote/</v>
       </c>
       <c r="B216" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/ventureworks/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/vote/</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>https://www.geneseo.edu/veterans/</v>
+        <v>https://www.geneseo.edu/wadsworth_auditorium/</v>
       </c>
       <c r="B217" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/veterans/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wadsworth_auditorium/</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>https://www.geneseo.edu/vote/</v>
+        <v>https://www.geneseo.edu/wellbeing/</v>
       </c>
       <c r="B218" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/vote/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wellbeing/</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>https://www.geneseo.edu/wadsworth_auditorium/</v>
+        <v>https://www.geneseo.edu/wgsu/</v>
       </c>
       <c r="B219" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/wadsworth_auditorium/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wgsu/</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>https://www.geneseo.edu/wellbeing/</v>
+        <v>https://www.geneseo.edu/winter_guard/</v>
       </c>
       <c r="B220" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/wellbeing/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/winter_guard/</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>https://www.geneseo.edu/wgsu/</v>
+        <v>https://www.geneseo.edu/wgst/</v>
       </c>
       <c r="B221" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/wgsu/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wgst/</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>https://www.geneseo.edu/winter_guard/</v>
+        <v>https://www.geneseo.edu/womens_rugby/</v>
       </c>
       <c r="B222" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/winter_guard/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/womens_rugby/</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>https://www.geneseo.edu/wgst/</v>
+        <v>https://www.geneseo.edu/writing-program/</v>
       </c>
       <c r="B223" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/wgst/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/writing-program/</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>https://www.geneseo.edu/womens_rugby/</v>
+        <v>https://www.geneseo.edu/yoga/</v>
       </c>
       <c r="B224" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/womens_rugby/</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="str">
-        <v>https://www.geneseo.edu/writing-program/</v>
-      </c>
-      <c r="B225" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/writing-program/</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="str">
-        <v>https://www.geneseo.edu/yoga/</v>
-      </c>
-      <c r="B226" t="str">
         <v>https://dev-suny-geneseo.pantheonsite.io/yoga/</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B226"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B224"/>
   </ignoredErrors>
 </worksheet>
 </file>